--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693" activeTab="4"/>
+    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="波段" sheetId="151" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="孙奕" sheetId="173" r:id="rId3"/>
     <sheet name="戚洪燕" sheetId="174" r:id="rId4"/>
     <sheet name="张亮" sheetId="175" r:id="rId5"/>
+    <sheet name="檀显峰" sheetId="176" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -782,8 +783,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1809873456"/>
-        <c:axId val="1809881616"/>
+        <c:axId val="197290624"/>
+        <c:axId val="197300608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1521,8 +1522,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809873456"/>
-        <c:axId val="1809881616"/>
+        <c:axId val="197290624"/>
+        <c:axId val="197300608"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2263,11 +2264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809875088"/>
-        <c:axId val="1809874000"/>
+        <c:axId val="197312512"/>
+        <c:axId val="197302528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809873456"/>
+        <c:axId val="197290624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2288,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809881616"/>
+        <c:crossAx val="197300608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2295,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809881616"/>
+        <c:axId val="197300608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,12 +2368,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809873456"/>
+        <c:crossAx val="197290624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1809874000"/>
+        <c:axId val="197302528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,12 +2393,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809875088"/>
+        <c:crossAx val="197312512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1809875088"/>
+        <c:axId val="197312512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2407,2083 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1809874000"/>
+        <c:crossAx val="197302528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>檀显峰</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>波段</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>收益合计表（近</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>月）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18388532319670875"/>
+          <c:y val="6.5366767072050483E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4339452731331501E-2"/>
+          <c:y val="0.15806396487584293"/>
+          <c:w val="0.85978331983786149"/>
+          <c:h val="0.74576157112247443"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$U$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>持仓市值(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11359685638471531"/>
+                  <c:y val="-0.48009530620881857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="40000"/>
+                          <a:lumOff val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$U$34:$U$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$Q$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>周一</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$Q$34:$Q$65</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-68"/>
+        <c:axId val="85412096"/>
+        <c:axId val="85438464"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$R$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5008515703862745E-3"/>
+                  <c:y val="9.5321176968723113E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6082566342074091E-2"/>
+                  <c:y val="-3.3872895352698877E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$R$34:$R$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$V$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投入资金线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12932128820624067"/>
+                  <c:y val="-8.1609001525972426E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="700">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$V$34:$V$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日收益额（万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.159420078161346E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$G$34:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益额(万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.4293510001653669E-7"/>
+                  <c:y val="-9.2457726650289011E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$E$34:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="85412096"/>
+        <c:axId val="85438464"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9928918817807705E-3"/>
+                  <c:y val="7.1884044846003414E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$H$34:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$X$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基准</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11791673924075864"/>
+                  <c:y val="1.1421109808125439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4906272454350591E-2"/>
+                  <c:y val="-6.8032239782039707E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$X$34:$X$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日内分控线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8514573564798269E-2"/>
+                  <c:y val="1.4113751851260714E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="500">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0657293744140166E-2"/>
+                  <c:y val="9.0709653042719603E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$M$34:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>当日收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2856205719046808E-5"/>
+                  <c:y val="-2.0494034813363857E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$F$34:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="85441920"/>
+        <c:axId val="85440384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85412096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yy/m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr rot="-2520000" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85438464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85438464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="36000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+                  <a:t>资</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0"/>
+                  <a:t>产类</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.2311236984034244E-3"/>
+              <c:y val="0.48414990412026804"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85412096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85440384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85441920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="85441920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85440384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2871,8 +4948,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1809875632"/>
-        <c:axId val="1809876720"/>
+        <c:axId val="197446272"/>
+        <c:axId val="197472640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3602,8 +5679,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809875632"/>
-        <c:axId val="1809876720"/>
+        <c:axId val="197446272"/>
+        <c:axId val="197472640"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4336,11 +6413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809877264"/>
-        <c:axId val="1809878352"/>
+        <c:axId val="197476352"/>
+        <c:axId val="197474560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809875632"/>
+        <c:axId val="197446272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4360,7 +6437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809876720"/>
+        <c:crossAx val="197472640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4368,7 +6445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809876720"/>
+        <c:axId val="197472640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,12 +6517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809875632"/>
+        <c:crossAx val="197446272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1809878352"/>
+        <c:axId val="197474560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,12 +6542,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809877264"/>
+        <c:crossAx val="197476352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1809877264"/>
+        <c:axId val="197476352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4479,7 +6556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1809878352"/>
+        <c:crossAx val="197474560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4954,8 +7031,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1772982912"/>
-        <c:axId val="1772979648"/>
+        <c:axId val="197753472"/>
+        <c:axId val="197759360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5685,8 +7762,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772982912"/>
-        <c:axId val="1772979648"/>
+        <c:axId val="197753472"/>
+        <c:axId val="197759360"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6419,11 +8496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772989440"/>
-        <c:axId val="1772985088"/>
+        <c:axId val="197763072"/>
+        <c:axId val="197761280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772982912"/>
+        <c:axId val="197753472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6443,7 +8520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772979648"/>
+        <c:crossAx val="197759360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6451,7 +8528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772979648"/>
+        <c:axId val="197759360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6523,12 +8600,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772982912"/>
+        <c:crossAx val="197753472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772985088"/>
+        <c:axId val="197761280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,12 +8625,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772989440"/>
+        <c:crossAx val="197763072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1772989440"/>
+        <c:axId val="197763072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6562,7 +8639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772985088"/>
+        <c:crossAx val="197761280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7037,8 +9114,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1772974752"/>
-        <c:axId val="1772986176"/>
+        <c:axId val="197975424"/>
+        <c:axId val="198055040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7773,8 +9850,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772974752"/>
-        <c:axId val="1772986176"/>
+        <c:axId val="197975424"/>
+        <c:axId val="198055040"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8507,11 +10584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772980736"/>
-        <c:axId val="1772986720"/>
+        <c:axId val="198062848"/>
+        <c:axId val="198056960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772974752"/>
+        <c:axId val="197975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8531,7 +10608,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772986176"/>
+        <c:crossAx val="198055040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8539,7 +10616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772986176"/>
+        <c:axId val="198055040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8611,12 +10688,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772974752"/>
+        <c:crossAx val="197975424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772986720"/>
+        <c:axId val="198056960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8636,12 +10713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772980736"/>
+        <c:crossAx val="198062848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1772980736"/>
+        <c:axId val="198062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8650,7 +10727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772986720"/>
+        <c:crossAx val="198056960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8679,6 +10756,2082 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>檀显峰</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>波段</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>收益合计表（近</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>月）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18388532319670875"/>
+          <c:y val="6.5366767072050483E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4339452731331501E-2"/>
+          <c:y val="0.15806396487584293"/>
+          <c:w val="0.85978331983786149"/>
+          <c:h val="0.74576157112247443"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$U$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>持仓市值(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11359685638471531"/>
+                  <c:y val="-0.48009530620881857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="40000"/>
+                          <a:lumOff val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$U$34:$U$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$Q$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>周一</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$Q$34:$Q$65</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-68"/>
+        <c:axId val="154316160"/>
+        <c:axId val="154314624"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$R$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5008515703862745E-3"/>
+                  <c:y val="9.5321176968723113E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6082566342074091E-2"/>
+                  <c:y val="-3.3872895352698877E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$R$34:$R$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$V$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投入资金线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12932128820624067"/>
+                  <c:y val="-8.1609001525972426E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="700">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$V$34:$V$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日收益额（万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.159420078161346E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/m/d;@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$G$34:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益额(万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.4293510001653669E-7"/>
+                  <c:y val="-9.2457726650289011E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$E$34:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="154316160"/>
+        <c:axId val="154314624"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9928918817807705E-3"/>
+                  <c:y val="7.1884044846003414E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$H$34:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$X$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基准</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11791673924075864"/>
+                  <c:y val="1.1421109808125439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4906272454350591E-2"/>
+                  <c:y val="-6.8032239782039707E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$X$34:$X$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日内分控线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8514573564798269E-2"/>
+                  <c:y val="1.4113751851260714E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="500">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0657293744140166E-2"/>
+                  <c:y val="9.0709653042719603E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$M$34:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>檀显峰!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>当日收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2856205719046808E-5"/>
+                  <c:y val="-2.0494034813363857E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>檀显峰!$F$34:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="145011072"/>
+        <c:axId val="144996992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="154316160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yy/m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr rot="-2520000" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154314624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154314624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="36000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+                  <a:t>资</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0"/>
+                  <a:t>产类</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.2311236984034244E-3"/>
+              <c:y val="0.48414990412026804"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154316160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144996992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145011072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="145011072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144996992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -9117,8 +13270,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1772981824"/>
-        <c:axId val="1772981280"/>
+        <c:axId val="197169152"/>
+        <c:axId val="197170688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9846,8 +13999,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772981824"/>
-        <c:axId val="1772981280"/>
+        <c:axId val="197169152"/>
+        <c:axId val="197170688"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10578,11 +14731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772987808"/>
-        <c:axId val="1772978016"/>
+        <c:axId val="197182592"/>
+        <c:axId val="197172608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772981824"/>
+        <c:axId val="197169152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10602,7 +14755,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772981280"/>
+        <c:crossAx val="197170688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10610,7 +14763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772981280"/>
+        <c:axId val="197170688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10682,12 +14835,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772981824"/>
+        <c:crossAx val="197169152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772978016"/>
+        <c:axId val="197172608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10707,12 +14860,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772987808"/>
+        <c:crossAx val="197182592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1772987808"/>
+        <c:axId val="197182592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10721,7 +14874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772978016"/>
+        <c:crossAx val="197172608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10749,7 +14902,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11188,8 +15341,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1772975296"/>
-        <c:axId val="1772975840"/>
+        <c:axId val="198329472"/>
+        <c:axId val="198331008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11922,8 +16075,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772975296"/>
-        <c:axId val="1772975840"/>
+        <c:axId val="198329472"/>
+        <c:axId val="198331008"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12654,11 +16807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772978560"/>
-        <c:axId val="1772976384"/>
+        <c:axId val="198338816"/>
+        <c:axId val="198337280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772975296"/>
+        <c:axId val="198329472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12678,7 +16831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772975840"/>
+        <c:crossAx val="198331008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12686,7 +16839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772975840"/>
+        <c:axId val="198331008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12758,12 +16911,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772975296"/>
+        <c:crossAx val="198329472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772976384"/>
+        <c:axId val="198337280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12783,12 +16936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772978560"/>
+        <c:crossAx val="198338816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1772978560"/>
+        <c:axId val="198338816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12797,7 +16950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772976384"/>
+        <c:crossAx val="198337280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12825,7 +16978,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13264,8 +17417,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1814936160"/>
-        <c:axId val="1814934528"/>
+        <c:axId val="235886080"/>
+        <c:axId val="235887616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13993,8 +18146,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814936160"/>
-        <c:axId val="1814934528"/>
+        <c:axId val="235886080"/>
+        <c:axId val="235887616"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14725,11 +18878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814941600"/>
-        <c:axId val="1814939968"/>
+        <c:axId val="235903616"/>
+        <c:axId val="235902080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1814936160"/>
+        <c:axId val="235886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14749,7 +18902,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814934528"/>
+        <c:crossAx val="235887616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -14757,7 +18910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1814934528"/>
+        <c:axId val="235887616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14829,12 +18982,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814936160"/>
+        <c:crossAx val="235886080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1814939968"/>
+        <c:axId val="235902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14854,12 +19007,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814941600"/>
+        <c:crossAx val="235903616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1814941600"/>
+        <c:axId val="235903616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14868,7 +19021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1814939968"/>
+        <c:crossAx val="235902080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14896,7 +19049,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15335,8 +19488,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1814937792"/>
-        <c:axId val="1814931264"/>
+        <c:axId val="236063360"/>
+        <c:axId val="236069248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16069,8 +20222,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814937792"/>
-        <c:axId val="1814931264"/>
+        <c:axId val="236063360"/>
+        <c:axId val="236069248"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16801,11 +20954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814940512"/>
-        <c:axId val="1814938336"/>
+        <c:axId val="236093440"/>
+        <c:axId val="236071168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1814937792"/>
+        <c:axId val="236063360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16825,7 +20978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814931264"/>
+        <c:crossAx val="236069248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -16833,7 +20986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1814931264"/>
+        <c:axId val="236069248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16905,12 +21058,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814937792"/>
+        <c:crossAx val="236063360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1814938336"/>
+        <c:axId val="236071168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16930,12 +21083,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814940512"/>
+        <c:crossAx val="236093440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1814940512"/>
+        <c:axId val="236093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16944,7 +21097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1814938336"/>
+        <c:crossAx val="236071168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17102,27 +21255,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17133,7 +21281,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17142,7 +21290,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17252,7 +21400,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17289,7 +21437,301 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59308</cdr:x>
+      <cdr:y>0.03629</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87131</cdr:x>
+      <cdr:y>0.15101</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="5" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5039213" y="201603"/>
+          <a:ext cx="2364040" cy="637297"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59308</cdr:x>
+      <cdr:y>0.03629</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87131</cdr:x>
+      <cdr:y>0.15101</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="5" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5039213" y="201603"/>
+          <a:ext cx="2364040" cy="637297"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17747,6 +22189,83 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17783,7 +22302,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17893,7 +22412,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17930,118 +22449,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.97289</cdr:x>
-      <cdr:y>0.40574</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99943</cdr:x>
-      <cdr:y>0.61669</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8052848" y="1963262"/>
-          <a:ext cx="219678" cy="1020724"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
-            <a:t>收益及风控类</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.97289</cdr:x>
-      <cdr:y>0.40574</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99943</cdr:x>
-      <cdr:y>0.61669</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8052848" y="1963262"/>
-          <a:ext cx="219678" cy="1020724"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
-            <a:t>收益及风控类</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.59308</cdr:x>
-      <cdr:y>0.03629</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.87131</cdr:x>
-      <cdr:y>0.15101</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="5" name="chart"/>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5039213" y="201603"/>
-          <a:ext cx="2364040" cy="637297"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -18083,7 +22492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18118,7 +22527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18329,8 +22738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q165" sqref="Q165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23669,7 +28078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
@@ -25435,4 +29844,1776 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y65"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="6.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="8.375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="5.875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E2" s="2"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E3" s="2"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E4" s="2"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E5" s="2"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E6" s="2"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E7" s="2"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E8" s="2"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E9" s="2"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E10" s="2"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E11" s="2"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E12" s="2"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E13" s="2"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E14" s="2"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E15" s="2"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E16" s="2"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E17" s="2"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E18" s="2"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E19" s="2"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E20" s="2"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E21" s="2"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E22" s="2"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E23" s="2"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E24" s="2"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E25" s="2"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E26" s="2"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E27" s="2"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E28" s="2"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E29" s="2"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E30" s="2"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="2:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9">
+        <v>4</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9">
+        <v>6</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7</v>
+      </c>
+      <c r="I31" s="9">
+        <v>8</v>
+      </c>
+      <c r="J31" s="9">
+        <v>9</v>
+      </c>
+      <c r="K31" s="9">
+        <v>10</v>
+      </c>
+      <c r="L31" s="9">
+        <v>11</v>
+      </c>
+      <c r="M31" s="9">
+        <v>13</v>
+      </c>
+      <c r="N31" s="9">
+        <v>16</v>
+      </c>
+      <c r="O31" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="2:24" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="9"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="6">
+        <v>10</v>
+      </c>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="12" t="str">
+        <f>"净资产"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
+        <v>净资产(单位:10万元)</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="12" t="str">
+        <f>"持仓市值"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
+        <v>持仓市值(单位:10万元)</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="14" t="str">
+        <f>"资金可用额度"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
+        <v>资金可用额度(单位:10万元)</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16">
+        <v>1</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N34" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O34" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q34" s="16">
+        <f>C34/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="28">
+        <f>D34/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="28">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="29">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="38">
+        <f>I34/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="30">
+        <f>J34/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="32">
+        <f>K34/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="16">
+        <v>2</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N35" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O35" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" ref="Q35:R58" si="0">C35/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" ref="S35:T58" si="1">G35</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="38">
+        <f t="shared" ref="U35:W58" si="2">I35/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="16">
+        <v>3</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N36" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O36" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="16">
+        <v>4</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N37" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O37" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q37" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="16">
+        <v>5</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N38" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O38" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q38" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="16">
+        <v>6</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N39" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O39" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="16">
+        <v>7</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N40" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O40" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="16">
+        <v>8</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N41" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O41" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q41" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16">
+        <v>9</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N42" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O42" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q42" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="16">
+        <v>10</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N43" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O43" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q43" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="16">
+        <v>11</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N44" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O44" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q44" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="16">
+        <v>12</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N45" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O45" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q45" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="16">
+        <v>13</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N46" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O46" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q46" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="16">
+        <v>14</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N47" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O47" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q47" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="16">
+        <v>15</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N48" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O48" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q48" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="16">
+        <v>16</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N49" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O49" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q49" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="16">
+        <v>17</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N50" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O50" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q50" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="16">
+        <v>18</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N51" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O51" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q51" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="16">
+        <v>19</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N52" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O52" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q52" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="16">
+        <v>20</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N53" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O53" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q53" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="16">
+        <v>21</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N54" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O54" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q54" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="16">
+        <v>22</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N55" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O55" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q55" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="16">
+        <v>23</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N56" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O56" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q56" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="16">
+        <v>24</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N57" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O57" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q57" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="16">
+        <v>25</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="N58" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="O58" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="Q58" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="5"/>
+      <c r="J59" s="3"/>
+      <c r="M59" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="X59" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="M60" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="X60" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M61" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="X61" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M62" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="X62" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M63" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="X63" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M64" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="X64" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="M65" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="X65" s="31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.4" right="0.26" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693"/>
@@ -9,10 +9,10 @@
   <sheets>
     <sheet name="波段" sheetId="151" r:id="rId1"/>
     <sheet name="合计" sheetId="168" r:id="rId2"/>
-    <sheet name="张亮" sheetId="175" r:id="rId3"/>
+    <sheet name="朱国建" sheetId="175" r:id="rId3"/>
     <sheet name="檀显峰" sheetId="176" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -89,12 +89,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="yy/mm/dd"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -220,18 +220,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -241,16 +241,16 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -259,7 +259,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,10 +274,10 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,23 +289,23 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -315,16 +315,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -962,8 +962,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="83792256"/>
-        <c:axId val="83793792"/>
+        <c:axId val="552092224"/>
+        <c:axId val="552083520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2076,8 +2076,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83792256"/>
-        <c:axId val="83793792"/>
+        <c:axId val="552092224"/>
+        <c:axId val="552083520"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2968,11 +2968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83797504"/>
-        <c:axId val="83795968"/>
+        <c:axId val="692010528"/>
+        <c:axId val="551066528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83792256"/>
+        <c:axId val="552092224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +2992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83793792"/>
+        <c:crossAx val="552083520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3000,7 +3000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83793792"/>
+        <c:axId val="552083520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,12 +3072,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83792256"/>
+        <c:crossAx val="552092224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83795968"/>
+        <c:axId val="551066528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,12 +3097,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83797504"/>
+        <c:crossAx val="692010528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83797504"/>
+        <c:axId val="692010528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,7 +3111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83795968"/>
+        <c:crossAx val="551066528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3199,7 +3199,7 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>张亮</a:t>
+              <a:t>朱国建</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -3257,7 +3257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$U$33</c:f>
+              <c:f>朱国建!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3312,7 +3312,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3346,7 +3348,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3430,7 +3432,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$U$34:$U$65</c:f>
+              <c:f>朱国建!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -3518,7 +3520,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$Q$33</c:f>
+              <c:f>朱国建!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3559,7 +3561,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3643,7 +3645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$Q$34:$Q$65</c:f>
+              <c:f>朱国建!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3736,8 +3738,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="91697536"/>
-        <c:axId val="91699072"/>
+        <c:axId val="692003456"/>
+        <c:axId val="692005632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3747,7 +3749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$R$33</c:f>
+              <c:f>朱国建!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3809,7 +3811,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3896,7 +3900,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3980,7 +3984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$R$34:$R$65</c:f>
+              <c:f>朱国建!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -4069,7 +4073,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$V$33</c:f>
+              <c:f>朱国建!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4125,7 +4129,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4159,7 +4165,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4243,7 +4249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$V$34:$V$65</c:f>
+              <c:f>朱国建!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4332,7 +4338,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$G$33</c:f>
+              <c:f>朱国建!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4402,7 +4408,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4472,7 +4480,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4556,7 +4564,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$G$34:$G$65</c:f>
+              <c:f>朱国建!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4645,7 +4653,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$E$33</c:f>
+              <c:f>朱国建!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4714,7 +4722,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4748,7 +4758,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$E$34:$E$65</c:f>
+              <c:f>朱国建!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4842,8 +4852,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91697536"/>
-        <c:axId val="91699072"/>
+        <c:axId val="692003456"/>
+        <c:axId val="692005632"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4853,7 +4863,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$H$33</c:f>
+              <c:f>朱国建!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4917,7 +4927,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4997,7 +5009,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$H$34:$H$65</c:f>
+              <c:f>朱国建!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5086,7 +5098,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$X$33</c:f>
+              <c:f>朱国建!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5126,7 +5138,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5185,7 +5199,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$X$34:$X$65</c:f>
+              <c:f>朱国建!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5295,7 +5309,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$M$33</c:f>
+              <c:f>朱国建!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5347,7 +5361,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5416,7 +5432,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$M$34:$M$65</c:f>
+              <c:f>朱国建!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5526,7 +5542,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$F$33</c:f>
+              <c:f>朱国建!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5598,7 +5614,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5632,7 +5650,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$F$34:$F$65</c:f>
+              <c:f>朱国建!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5726,11 +5744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91702784"/>
-        <c:axId val="91701248"/>
+        <c:axId val="692006176"/>
+        <c:axId val="692011616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91697536"/>
+        <c:axId val="692003456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5750,7 +5768,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91699072"/>
+        <c:crossAx val="692005632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5758,7 +5776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91699072"/>
+        <c:axId val="692005632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5830,12 +5848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91697536"/>
+        <c:crossAx val="692003456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91701248"/>
+        <c:axId val="692011616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,12 +5873,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91702784"/>
+        <c:crossAx val="692006176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="91702784"/>
+        <c:axId val="692006176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5869,7 +5887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91701248"/>
+        <c:crossAx val="692011616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6070,9 +6088,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6486,8 +6502,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="107870080"/>
-        <c:axId val="107871616"/>
+        <c:axId val="692005088"/>
+        <c:axId val="692006720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6559,9 +6575,7 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6877,9 +6891,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7156,9 +7168,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7470,9 +7480,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7590,8 +7598,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107870080"/>
-        <c:axId val="107871616"/>
+        <c:axId val="692005088"/>
+        <c:axId val="692006720"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7665,9 +7673,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7876,9 +7882,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8099,9 +8103,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8352,9 +8354,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8472,11 +8472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107879424"/>
-        <c:axId val="107877888"/>
+        <c:axId val="692002368"/>
+        <c:axId val="692008352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107870080"/>
+        <c:axId val="692005088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8496,7 +8496,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107871616"/>
+        <c:crossAx val="692006720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8504,7 +8504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107871616"/>
+        <c:axId val="692006720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8576,12 +8576,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107870080"/>
+        <c:crossAx val="692005088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107877888"/>
+        <c:axId val="692008352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8601,12 +8601,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107879424"/>
+        <c:crossAx val="692002368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="107879424"/>
+        <c:axId val="692002368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8615,7 +8615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107877888"/>
+        <c:crossAx val="692008352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9232,8 +9232,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="108103936"/>
-        <c:axId val="108122112"/>
+        <c:axId val="692009440"/>
+        <c:axId val="692009984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10336,8 +10336,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108103936"/>
-        <c:axId val="108122112"/>
+        <c:axId val="692009440"/>
+        <c:axId val="692009984"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11218,11 +11218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108125568"/>
-        <c:axId val="108124032"/>
+        <c:axId val="692016512"/>
+        <c:axId val="692012160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108103936"/>
+        <c:axId val="692009440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11242,7 +11242,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108122112"/>
+        <c:crossAx val="692009984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11250,7 +11250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108122112"/>
+        <c:axId val="692009984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11322,12 +11322,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108103936"/>
+        <c:crossAx val="692009440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108124032"/>
+        <c:axId val="692012160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11347,12 +11347,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108125568"/>
+        <c:crossAx val="692016512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="108125568"/>
+        <c:axId val="692016512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11361,7 +11361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108124032"/>
+        <c:crossAx val="692012160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11437,7 +11437,7 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>张亮</a:t>
+              <a:t>朱国建</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -11507,7 +11507,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$U$33</c:f>
+              <c:f>朱国建!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11588,7 +11588,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11672,7 +11672,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$U$34:$U$65</c:f>
+              <c:f>朱国建!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -11760,7 +11760,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$Q$33</c:f>
+              <c:f>朱国建!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11801,7 +11801,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11885,7 +11885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$Q$34:$Q$65</c:f>
+              <c:f>朱国建!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11978,8 +11978,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="111412352"/>
-        <c:axId val="111413888"/>
+        <c:axId val="692001280"/>
+        <c:axId val="692002912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11989,7 +11989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$R$33</c:f>
+              <c:f>朱国建!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12140,7 +12140,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12224,7 +12224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$R$34:$R$65</c:f>
+              <c:f>朱国建!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -12313,7 +12313,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$V$33</c:f>
+              <c:f>朱国建!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12405,7 +12405,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12489,7 +12489,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$V$34:$V$65</c:f>
+              <c:f>朱国建!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12578,7 +12578,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$G$33</c:f>
+              <c:f>朱国建!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12725,7 +12725,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>张亮!$B$34:$B$65</c:f>
+              <c:f>朱国建!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12809,7 +12809,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$G$34:$G$65</c:f>
+              <c:f>朱国建!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12898,7 +12898,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$E$33</c:f>
+              <c:f>朱国建!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12993,7 +12993,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$E$34:$E$65</c:f>
+              <c:f>朱国建!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -13087,8 +13087,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111412352"/>
-        <c:axId val="111413888"/>
+        <c:axId val="692001280"/>
+        <c:axId val="692002912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13098,7 +13098,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$H$33</c:f>
+              <c:f>朱国建!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13244,7 +13244,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$H$34:$H$65</c:f>
+              <c:f>朱国建!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -13333,7 +13333,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$X$33</c:f>
+              <c:f>朱国建!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13434,7 +13434,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$X$34:$X$65</c:f>
+              <c:f>朱国建!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -13544,7 +13544,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$M$33</c:f>
+              <c:f>朱国建!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13667,7 +13667,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$M$34:$M$65</c:f>
+              <c:f>朱国建!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -13777,7 +13777,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>张亮!$F$33</c:f>
+              <c:f>朱国建!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13875,7 +13875,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>张亮!$F$34:$F$65</c:f>
+              <c:f>朱国建!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -13969,11 +13969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111421696"/>
-        <c:axId val="111420160"/>
+        <c:axId val="692013792"/>
+        <c:axId val="692013248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111412352"/>
+        <c:axId val="692001280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13993,7 +13993,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111413888"/>
+        <c:crossAx val="692002912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -14001,7 +14001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111413888"/>
+        <c:axId val="692002912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14073,12 +14073,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111412352"/>
+        <c:crossAx val="692001280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111420160"/>
+        <c:axId val="692013248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14098,12 +14098,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111421696"/>
+        <c:crossAx val="692013792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="111421696"/>
+        <c:axId val="692013792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14112,7 +14112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111420160"/>
+        <c:crossAx val="692013248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14313,9 +14313,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14729,8 +14727,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="111593728"/>
-        <c:axId val="111603712"/>
+        <c:axId val="692015424"/>
+        <c:axId val="692015968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14802,9 +14800,7 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15120,9 +15116,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -15399,9 +15393,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15718,9 +15710,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -15838,8 +15828,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111593728"/>
-        <c:axId val="111603712"/>
+        <c:axId val="692015424"/>
+        <c:axId val="692015968"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15913,9 +15903,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -16124,9 +16112,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -16347,9 +16333,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -16600,9 +16584,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -16720,11 +16702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111607168"/>
-        <c:axId val="111605632"/>
+        <c:axId val="769457408"/>
+        <c:axId val="769463936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111593728"/>
+        <c:axId val="692015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16744,7 +16726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111603712"/>
+        <c:crossAx val="692015968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -16752,7 +16734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111603712"/>
+        <c:axId val="692015968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16824,12 +16806,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111593728"/>
+        <c:crossAx val="692015424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111605632"/>
+        <c:axId val="769463936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16849,12 +16831,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111607168"/>
+        <c:crossAx val="769457408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="111607168"/>
+        <c:axId val="769457408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16863,7 +16845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111605632"/>
+        <c:crossAx val="769463936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17704,7 +17686,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17746,7 +17728,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17781,7 +17763,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17992,7 +17974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q113" sqref="Q113"/>
     </sheetView>
   </sheetViews>
@@ -18016,7 +17998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
@@ -20237,8 +20219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>

--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
@@ -9,15 +9,14 @@
   <sheets>
     <sheet name="波段" sheetId="151" r:id="rId1"/>
     <sheet name="合计" sheetId="168" r:id="rId2"/>
-    <sheet name="朱国建" sheetId="175" r:id="rId3"/>
-    <sheet name="檀显峰" sheetId="176" r:id="rId4"/>
+    <sheet name="檀显峰" sheetId="176" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -962,8 +961,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="552092224"/>
-        <c:axId val="552083520"/>
+        <c:axId val="-852937152"/>
+        <c:axId val="-852954560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2076,8 +2075,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552092224"/>
-        <c:axId val="552083520"/>
+        <c:axId val="-852937152"/>
+        <c:axId val="-852954560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2968,11 +2967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692010528"/>
-        <c:axId val="551066528"/>
+        <c:axId val="-852939872"/>
+        <c:axId val="-852937696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="552092224"/>
+        <c:axId val="-852937152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +2991,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552083520"/>
+        <c:crossAx val="-852954560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3000,7 +2999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552083520"/>
+        <c:axId val="-852954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,12 +3071,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552092224"/>
+        <c:crossAx val="-852937152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551066528"/>
+        <c:axId val="-852937696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,12 +3096,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692010528"/>
+        <c:crossAx val="-852939872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="692010528"/>
+        <c:axId val="-852939872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,7 +3110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551066528"/>
+        <c:crossAx val="-852937696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3140,2782 +3139,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>波段</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>朱国建</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>收益表（近</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>月）</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32445376084658378"/>
-          <c:y val="6.2908362145611879E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.4339452731331501E-2"/>
-          <c:y val="0.15806396487584293"/>
-          <c:w val="0.85978331983786149"/>
-          <c:h val="0.74576157112247443"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$U$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>持仓市值(单位:10万元)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10655966856411465"/>
-                  <c:y val="0.71377194714986414"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="40000"/>
-                          <a:lumOff val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$U$34:$U$65</c:f>
-              <c:numCache>
-                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>81.141606400000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81.244580599999992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.935382200000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.8658736</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81.820089800000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.772599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>82.684883400000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.78922</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.531582999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.531582999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.531582999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.531582999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83.531582999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83.531582999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83.202910399999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.91508300000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>83.8617986</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83.903048600000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>84.132436800000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>84.057678199999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>84.399824999999993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>84.159626599999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>83.148522200000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83.753204000000011</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>83.084833000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$Q$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>周一</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$Q$34:$Q$65</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>81.141606400000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.772599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.531582999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.91508300000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>84.399824999999993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="692003456"/>
-        <c:axId val="692005632"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$R$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>净资产(单位:10万元)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.6570033004454784E-5"/>
-                  <c:y val="5.0558907353471662E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="88"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.6082566342074091E-2"/>
-                  <c:y val="-3.3872895352698877E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$R$34:$R$65</c:f>
-              <c:numCache>
-                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>78.433542183363556</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.620896057191104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.983996324929777</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.826422928268443</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.716071637207094</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81.564739343356436</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81.370755992695109</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>81.5608343637671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.026823751194655</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.008252108177771</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>82.952537179127106</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>82.933965536110222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>82.915393893093338</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82.89682225007644</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>82.220978445415113</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.589596532497765</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>83.464467930458653</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83.528387120775108</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83.968540902602655</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>83.800468672607991</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>84.429004536979548</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>83.930089471384875</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81.889533718234659</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83.080191301484433</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>81.725026185356427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$V$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>投入资金线</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dashDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12932128820624067"/>
-                  <c:y val="-8.1609001525972426E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="700">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="700"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$V$34:$V$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>日收益额（万元）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.9928918817807705E-3"/>
-                  <c:y val="3.2463762188517688E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="88"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$G$34:$G$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-28.670355103502221</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84379673827555557</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.2770133226133336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.88064796661333344</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3543250893866663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3372588827200005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.0626775066133334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85741771072000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.2362638742755561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.18571643016888889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.18571643016888889</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.18571643016888889</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.18571643016888889</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.18571643016888889</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.4717120466133338</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9344269640533334</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.71844202039111116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.22669190316444446</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.107655818275556</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.93313629994666669</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.234991243608889</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.5871666559466666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-10.294513531502222</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.8597578324977775</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-6.8679411612800001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$E$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>累计收益额(万元）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.1441888756580474E-3"/>
-                  <c:y val="-4.0863104272051115E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$E$34:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-27.080642166364445</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-26.236845428088888</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-29.513858750702219</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-30.394506717315554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-21.040181627928888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-12.078596566435555</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.141274073048889</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-12.283856362328889</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.0475924880533336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.2333089182222228</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-5.7904582087288885</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-5.9761746388977777</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.1618910690666668</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-6.347607499235556</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-9.819319545848888</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.2548646750222221</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.9733066954133336</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.7466147922488893</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.6389589739733332</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.57209527392</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29179536979555559</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.2953712861511111</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-12.589884817653333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-6.7301269851555556</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-13.598068146435555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="692003456"/>
-        <c:axId val="692005632"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$H$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>累计收益率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.7926733528877008E-3"/>
-                  <c:y val="4.4824019669437914E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="88"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$H$34:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-3.1915485651955913E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.1030953658876096E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.5021945613572789E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.6171387655780408E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.5083109317517126E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.4411442759957699E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.5691783731016651E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.4677272883064613E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-6.0316901519655384E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.2541861421230409E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.9205925153859264E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.1430926085586429E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.3655780021386497E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-7.5880505309151511E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.1740726043755393E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.891262248389927E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-4.7497205138949941E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-4.4782541749205842E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.9586356228977158E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.0733147680383709E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.485618006263018E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.7414612773253972E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.5039798715978761E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-8.0396474292998218E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.6247400652450558E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$X$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>基准</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11791673924075864"/>
-                  <c:y val="1.1421109808125439E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.4906272454350591E-2"/>
-                  <c:y val="-6.8032239782039707E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$X$34:$X$65</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$M$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>日内分控线</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8514573564798269E-2"/>
-                  <c:y val="1.4113751851260714E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="500">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.0657293744140166E-2"/>
-                  <c:y val="9.0709653042719603E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="800">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$M$34:$M$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>朱国建!$F$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>当日收益率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.284820534550625E-3"/>
-                  <c:y val="-2.6305935276646794E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>朱国建!$F$34:$F$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-3.5333728743509596E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.038588336654612E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.0489254928277015E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0890230048950257E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1432797387844798E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1280615802241514E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.2852137693325132E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0356634725148999E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.662907626538761E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.2233079213749473E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.2233079213749473E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.2233079213749473E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.2233079213749473E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.2233079213749473E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4.1725848650281516E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2636240305611498E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-8.5669760532790576E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.701831541845125E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.5051643556763779E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.1101142928626202E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.832935961192916E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-3.074118506066027E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.2380873717443197E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.996458108632809E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-8.2661791728942894E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="692006176"/>
-        <c:axId val="692011616"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="692003456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yy/mm/dd" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:txPr>
-          <a:bodyPr rot="-2520000" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="692005632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="692005632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                  <a:alpha val="36000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-                  <a:t>资</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0"/>
-                  <a:t>产类</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="9.2311236984034244E-3"/>
-              <c:y val="0.48414990412026804"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="692003456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="692011616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="692006176"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="692006176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692011616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6088,7 +3311,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6502,8 +3727,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="692005088"/>
-        <c:axId val="692006720"/>
+        <c:axId val="-852952928"/>
+        <c:axId val="-852943680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6575,7 +3800,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6891,7 +4118,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7168,7 +4397,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7480,7 +4711,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7598,8 +4831,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692005088"/>
-        <c:axId val="692006720"/>
+        <c:axId val="-852952928"/>
+        <c:axId val="-852943680"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7673,7 +4906,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7882,7 +5117,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8103,7 +5340,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8354,7 +5593,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8472,11 +5713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692002368"/>
-        <c:axId val="692008352"/>
+        <c:axId val="-852939328"/>
+        <c:axId val="-852943136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="692005088"/>
+        <c:axId val="-852952928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8496,7 +5737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692006720"/>
+        <c:crossAx val="-852943680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8504,7 +5745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="692006720"/>
+        <c:axId val="-852943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8576,12 +5817,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692005088"/>
+        <c:crossAx val="-852952928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692008352"/>
+        <c:axId val="-852943136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8601,12 +5842,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692002368"/>
+        <c:crossAx val="-852939328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="692002368"/>
+        <c:axId val="-852939328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8615,7 +5856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692008352"/>
+        <c:crossAx val="-852943136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8643,7 +5884,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -9232,8 +6473,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="692009440"/>
-        <c:axId val="692009984"/>
+        <c:axId val="-852942592"/>
+        <c:axId val="-852928992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10336,8 +7577,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692009440"/>
-        <c:axId val="692009984"/>
+        <c:axId val="-852942592"/>
+        <c:axId val="-852928992"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11218,11 +8459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692016512"/>
-        <c:axId val="692012160"/>
+        <c:axId val="-852933888"/>
+        <c:axId val="-852942048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="692009440"/>
+        <c:axId val="-852942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11242,7 +8483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692009984"/>
+        <c:crossAx val="-852928992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11250,7 +8491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="692009984"/>
+        <c:axId val="-852928992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11322,12 +8563,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692009440"/>
+        <c:crossAx val="-852942592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692012160"/>
+        <c:axId val="-852942048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11347,12 +8588,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692016512"/>
+        <c:crossAx val="-852933888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="692016512"/>
+        <c:axId val="-852933888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11361,7 +8602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692012160"/>
+        <c:crossAx val="-852942048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11389,7 +8630,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11437,7 +8678,7 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>朱国建</a:t>
+              <a:t>檀显峰</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -11507,7 +8748,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$U$33</c:f>
+              <c:f>檀显峰!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11588,7 +8829,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11672,84 +8913,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$U$34:$U$65</c:f>
+              <c:f>檀显峰!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>81.141606400000001</c:v>
+                  <c:v>18.776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.244580599999992</c:v>
+                  <c:v>18.952000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.935382200000006</c:v>
+                  <c:v>18.580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.8658736</c:v>
+                  <c:v>18.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.820089800000005</c:v>
+                  <c:v>18.923999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.772599</c:v>
+                  <c:v>19.103999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.684883400000004</c:v>
+                  <c:v>18.795999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.78922</c:v>
+                  <c:v>19.064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.531582999999998</c:v>
+                  <c:v>19.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.531582999999998</c:v>
+                  <c:v>19.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.531582999999998</c:v>
+                  <c:v>19.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.531582999999998</c:v>
+                  <c:v>19.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.531582999999998</c:v>
+                  <c:v>19.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.531582999999998</c:v>
+                  <c:v>19.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.202910399999993</c:v>
+                  <c:v>19.163999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.91508300000001</c:v>
+                  <c:v>9.85</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83.8617986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.903048600000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.132436800000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84.057678199999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.399824999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84.159626599999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83.148522200000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83.753204000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83.084833000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11760,7 +9001,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$Q$33</c:f>
+              <c:f>檀显峰!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11801,7 +9042,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11885,12 +9126,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$Q$34:$Q$65</c:f>
+              <c:f>檀显峰!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>81.141606400000001</c:v>
+                  <c:v>18.776</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -11905,7 +9146,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.772599</c:v>
+                  <c:v>19.103999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -11920,7 +9161,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.531582999999998</c:v>
+                  <c:v>19.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -11935,7 +9176,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.91508300000001</c:v>
+                  <c:v>9.85</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -11950,7 +9191,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.399824999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -11978,8 +9219,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="692001280"/>
-        <c:axId val="692002912"/>
+        <c:axId val="-852940960"/>
+        <c:axId val="-852948032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11989,7 +9230,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$R$33</c:f>
+              <c:f>檀显峰!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12140,7 +9381,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12224,84 +9465,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$R$34:$R$65</c:f>
+              <c:f>檀显峰!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>78.433542183363556</c:v>
+                  <c:v>3.7940060622717779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.620896057191104</c:v>
+                  <c:v>4.1413101048262222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.983996324929777</c:v>
+                  <c:v>3.3927359251584441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.826422928268443</c:v>
+                  <c:v>3.1721030788240001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.716071637207094</c:v>
+                  <c:v>4.0713457880451109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.564739343356436</c:v>
+                  <c:v>4.4171343601528887</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.370755992695109</c:v>
+                  <c:v>3.7965459582628887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.5608343637671</c:v>
+                  <c:v>4.3278295563728886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.026823751194655</c:v>
+                  <c:v>5.0190953767051116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.008252108177771</c:v>
+                  <c:v>5.0144385303706667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.952537179127106</c:v>
+                  <c:v>5.0004679913673327</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.933965536110222</c:v>
+                  <c:v>4.9958111450328877</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82.915393893093338</c:v>
+                  <c:v>4.9911542986984454</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82.89682225007644</c:v>
+                  <c:v>4.9864974523640004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82.220978445415113</c:v>
+                  <c:v>4.4858957171406662</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.589596532497765</c:v>
+                  <c:v>-4.3577625018626662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83.464467930458653</c:v>
+                  <c:v>-14.206388497014888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.528387120775108</c:v>
+                  <c:v>-14.206679166157333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.968540902602655</c:v>
+                  <c:v>-14.206969835299777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83.800468672607991</c:v>
+                  <c:v>-14.207260504442221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.429004536979548</c:v>
+                  <c:v>-14.208132511869556</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.930089471384875</c:v>
+                  <c:v>-14.208423181012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81.889533718234659</c:v>
+                  <c:v>-14.208713850154444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83.080191301484433</c:v>
+                  <c:v>-14.209004519296888</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81.725026185356427</c:v>
+                  <c:v>-14.209295188439333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12313,7 +9554,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$V$33</c:f>
+              <c:f>檀显峰!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12405,7 +9646,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12489,7 +9730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$V$34:$V$65</c:f>
+              <c:f>檀显峰!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12578,7 +9819,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$G$33</c:f>
+              <c:f>檀显峰!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12718,14 +9959,9 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>朱国建!$B$34:$B$65</c:f>
+              <c:f>檀显峰!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12809,84 +10045,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$G$34:$G$65</c:f>
+              <c:f>檀显峰!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-28.670355103502221</c:v>
+                  <c:v>-20.881937352233336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84379673827555557</c:v>
+                  <c:v>1.7130404255444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.2770133226133336</c:v>
+                  <c:v>-3.7657417966777778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.88064796661333344</c:v>
+                  <c:v>-1.1263284633444444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3543250893866663</c:v>
+                  <c:v>4.4724270922111113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3372588827200005</c:v>
+                  <c:v>1.7530315366555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0626775066133334</c:v>
+                  <c:v>-3.1258840189000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85741771072000006</c:v>
+                  <c:v>2.6328359811000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2362638742755561</c:v>
+                  <c:v>3.4326582033222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.18571643016888889</c:v>
+                  <c:v>-4.6568463344444443E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.18571643016888889</c:v>
+                  <c:v>-4.6568463344444443E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.18571643016888889</c:v>
+                  <c:v>-4.6568463344444443E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.18571643016888889</c:v>
+                  <c:v>-4.6568463344444443E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.18571643016888889</c:v>
+                  <c:v>-4.6568463344444443E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.4717120466133338</c:v>
+                  <c:v>-2.5260173522333331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.9344269640533334</c:v>
+                  <c:v>4.7954525144333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.71844202039111116</c:v>
+                  <c:v>1.3740048477777779E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.22669190316444446</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.107655818275556</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.93313629994666669</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.234991243608889</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.5871666559466666</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-10.294513531502222</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.8597578324977775</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.8679411612800001</c:v>
+                  <c:v>-2.9066914244444447E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12898,7 +10134,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$E$33</c:f>
+              <c:f>檀显峰!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12993,84 +10229,84 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$E$34:$E$65</c:f>
+              <c:f>檀显峰!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-27.080642166364445</c:v>
+                  <c:v>-149.81993937728222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26.236845428088888</c:v>
+                  <c:v>-148.10689895173778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29.513858750702219</c:v>
+                  <c:v>-151.87264074841553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-30.394506717315554</c:v>
+                  <c:v>-152.99896921176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21.040181627928888</c:v>
+                  <c:v>-148.52654211954888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12.078596566435555</c:v>
+                  <c:v>-146.8686563984711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-13.141274073048889</c:v>
+                  <c:v>-149.9945404173711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-12.283856362328889</c:v>
+                  <c:v>-147.36170443627111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.0475924880533336</c:v>
+                  <c:v>-143.92904623294891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.2333089182222228</c:v>
+                  <c:v>-143.97561469629332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.7904582087288885</c:v>
+                  <c:v>-144.11532008632665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.9761746388977777</c:v>
+                  <c:v>-144.16188854967109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.1618910690666668</c:v>
+                  <c:v>-144.20845701301553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.347607499235556</c:v>
+                  <c:v>-144.25502547635998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9.819319545848888</c:v>
+                  <c:v>-146.78104282859331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.2548646750222221</c:v>
+                  <c:v>-142.07762501862666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.9733066954133336</c:v>
+                  <c:v>-142.06388497014888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.7466147922488893</c:v>
+                  <c:v>-142.06679166157332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.6389589739733332</c:v>
+                  <c:v>-142.06969835299776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.57209527392</c:v>
+                  <c:v>-142.0726050444222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29179536979555559</c:v>
+                  <c:v>-142.08132511869556</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.2953712861511111</c:v>
+                  <c:v>-142.08423181012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-12.589884817653333</c:v>
+                  <c:v>-142.08713850154444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-6.7301269851555556</c:v>
+                  <c:v>-142.09004519296889</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-13.598068146435555</c:v>
+                  <c:v>-142.09295188439333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13087,8 +10323,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692001280"/>
-        <c:axId val="692002912"/>
+        <c:axId val="-852940960"/>
+        <c:axId val="-852948032"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13098,7 +10334,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$H$33</c:f>
+              <c:f>檀显峰!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13244,84 +10480,84 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$H$34:$H$65</c:f>
+              <c:f>檀显峰!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-3.1915485651955913E-2</c:v>
+                  <c:v>-0.75165395368538923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.1030953658876096E-2</c:v>
+                  <c:v>-0.72947175169763123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.5021945613572789E-2</c:v>
+                  <c:v>-0.73764522602955385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.6171387655780408E-2</c:v>
+                  <c:v>-0.7346579338153939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.5083109317517126E-2</c:v>
+                  <c:v>-0.70520601687039863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.4411442759957699E-2</c:v>
+                  <c:v>-0.69021097646617802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5691783731016651E-2</c:v>
+                  <c:v>-0.69919433075215454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.4677272883064613E-2</c:v>
+                  <c:v>-0.68154383635122562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.0316901519655384E-3</c:v>
+                  <c:v>-0.66048203173857833</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.2541861421230409E-3</c:v>
+                  <c:v>-0.65609557785627448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.9205925153859264E-3</c:v>
+                  <c:v>-0.65262103652936365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.1430926085586429E-3</c:v>
+                  <c:v>-0.64913770603152443</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.3655780021386497E-3</c:v>
+                  <c:v>-0.64600966665225845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.5880505309151511E-3</c:v>
+                  <c:v>-0.64318771666332075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1740726043755393E-2</c:v>
+                  <c:v>-0.65192603658342974</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.891262248389927E-3</c:v>
+                  <c:v>-0.63892674854902476</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.7497205138949941E-3</c:v>
+                  <c:v>-0.65725778659488987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.4782541749205842E-3</c:v>
+                  <c:v>-0.65727123438686275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.9586356228977158E-3</c:v>
+                  <c:v>-0.65728468217883562</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.0733147680383709E-3</c:v>
+                  <c:v>-0.6572981299708085</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.485618006263018E-4</c:v>
+                  <c:v>-0.65733847334672735</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.7414612773253972E-3</c:v>
+                  <c:v>-0.65735192113870022</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.5039798715978761E-2</c:v>
+                  <c:v>-0.6573653689306731</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.0396474292998218E-3</c:v>
+                  <c:v>-0.6573788167226462</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.6247400652450558E-2</c:v>
+                  <c:v>-0.65739226451461907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13333,7 +10569,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$X$33</c:f>
+              <c:f>檀显峰!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13434,7 +10670,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$X$34:$X$65</c:f>
+              <c:f>檀显峰!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -13544,7 +10780,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$M$33</c:f>
+              <c:f>檀显峰!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13667,7 +10903,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$M$34:$M$65</c:f>
+              <c:f>檀显峰!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -13777,7 +11013,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>朱国建!$F$33</c:f>
+              <c:f>檀显峰!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13875,84 +11111,84 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>朱国建!$F$34:$F$65</c:f>
+              <c:f>檀显峰!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-3.5333728743509596E-2</c:v>
+                  <c:v>-0.11121611286873313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.038588336654612E-3</c:v>
+                  <c:v>9.0388371968364526E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.0489254928277015E-3</c:v>
+                  <c:v>-2.0267716882011722E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0890230048950257E-3</c:v>
+                  <c:v>-6.0974905984432894E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1432797387844798E-2</c:v>
+                  <c:v>2.3633624456833185E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1280615802241514E-2</c:v>
+                  <c:v>9.1762538560278255E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2852137693325132E-3</c:v>
+                  <c:v>-1.6630581075228773E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0356634725148999E-3</c:v>
+                  <c:v>1.3810511860574907E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.662907626538761E-3</c:v>
+                  <c:v>1.768317640285505E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2233079213749473E-4</c:v>
+                  <c:v>-2.3989523668063284E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.2233079213749473E-4</c:v>
+                  <c:v>-2.3989523668063284E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.2233079213749473E-4</c:v>
+                  <c:v>-2.3989523668063284E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.2233079213749473E-4</c:v>
+                  <c:v>-2.3989523668063284E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.2233079213749473E-4</c:v>
+                  <c:v>-2.3989523668063284E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.1725848650281516E-3</c:v>
+                  <c:v>-1.3181054854066652E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2636240305611498E-3</c:v>
+                  <c:v>4.8684797100846028E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.5669760532790576E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.701831541845125E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5051643556763779E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.1101142928626202E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.832935961192916E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.074118506066027E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.2380873717443197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.996458108632809E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.2661791728942894E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13969,11 +11205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692013792"/>
-        <c:axId val="692013248"/>
+        <c:axId val="-852941504"/>
+        <c:axId val="-852956192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="692001280"/>
+        <c:axId val="-852940960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13993,7 +11229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692002912"/>
+        <c:crossAx val="-852948032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -14001,7 +11237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="692002912"/>
+        <c:axId val="-852948032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14073,12 +11309,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692001280"/>
+        <c:crossAx val="-852940960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692013248"/>
+        <c:axId val="-852956192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14098,12 +11334,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692013792"/>
+        <c:crossAx val="-852941504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="692013792"/>
+        <c:axId val="-852941504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14112,2740 +11348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692013248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>檀显峰</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>波段</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>收益合计表（近</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>月）</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18388532319670875"/>
-          <c:y val="6.5366767072050483E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.4339452731331501E-2"/>
-          <c:y val="0.15806396487584293"/>
-          <c:w val="0.85978331983786149"/>
-          <c:h val="0.74576157112247443"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$U$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>持仓市值(单位:10万元)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11359685638471531"/>
-                  <c:y val="-0.48009530620881857"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="40000"/>
-                          <a:lumOff val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$U$34:$U$65</c:f>
-              <c:numCache>
-                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>18.776</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.952000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.580000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.472000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.923999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.795999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.163999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$Q$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>周一</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$Q$34:$Q$65</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>18.776</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="-68"/>
-        <c:axId val="692015424"/>
-        <c:axId val="692015968"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$R$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>净资产(单位:10万元)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.5008515703862745E-3"/>
-                  <c:y val="9.5321176968723113E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1050">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1050">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="88"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.6082566342074091E-2"/>
-                  <c:y val="-3.3872895352698877E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1050"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$R$34:$R$65</c:f>
-              <c:numCache>
-                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>3.7940060622717779</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1413101048262222</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3927359251584441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1721030788240001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0713457880451109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4171343601528887</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7965459582628887</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3278295563728886</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0190953767051116</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0144385303706667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0004679913673327</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9958111450328877</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.9911542986984454</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9864974523640004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4858957171406662</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4.3577625018626662</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-14.206388497014888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-14.206679166157333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-14.206969835299777</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-14.207260504442221</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-14.208132511869556</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-14.208423181012</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-14.208713850154444</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-14.209004519296888</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-14.209295188439333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$V$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>投入资金线</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dashDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12932128820624067"/>
-                  <c:y val="-8.1609001525972426E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="700">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="700"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$V$34:$V$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>日收益额（万元）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-1.159420078161346E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="88"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1050">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/mm/dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>42751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42775</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42776</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$G$34:$G$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-20.881937352233336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7130404255444445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.7657417966777778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.1263284633444444</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4724270922111113</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7530315366555556</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.1258840189000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6328359811000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4326582033222222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.6568463344444443E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.6568463344444443E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.6568463344444443E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.6568463344444443E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.6568463344444443E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.5260173522333331</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7954525144333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3740048477777779E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.9066914244444447E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$E$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>累计收益额(万元）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.4293510001653669E-7"/>
-                  <c:y val="-9.2457726650289011E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$E$34:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-149.81993937728222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-148.10689895173778</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-151.87264074841553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-152.99896921176</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-148.52654211954888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-146.8686563984711</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-149.9945404173711</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-147.36170443627111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-143.92904623294891</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-143.97561469629332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-144.11532008632665</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-144.16188854967109</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-144.20845701301553</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-144.25502547635998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-146.78104282859331</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-142.07762501862666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-142.06388497014888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-142.06679166157332</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-142.06969835299776</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-142.0726050444222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-142.08132511869556</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-142.08423181012</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-142.08713850154444</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-142.09004519296889</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-142.09295188439333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="692015424"/>
-        <c:axId val="692015968"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$H$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>累计收益率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.9928918817807705E-3"/>
-                  <c:y val="7.1884044846003414E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1050">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="88"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$H$34:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-0.75165395368538923</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.72947175169763123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.73764522602955385</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.7346579338153939</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.70520601687039863</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.69021097646617802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.69919433075215454</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.68154383635122562</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.66048203173857833</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.65609557785627448</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.65262103652936365</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.64913770603152443</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.64600966665225845</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.64318771666332075</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.65192603658342974</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.63892674854902476</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.65725778659488987</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.65727123438686275</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.65728468217883562</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.6572981299708085</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.65733847334672735</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.65735192113870022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.6573653689306731</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.6573788167226462</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.65739226451461907</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$X$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>基准</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11791673924075864"/>
-                  <c:y val="1.1421109808125439E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.4906272454350591E-2"/>
-                  <c:y val="-6.8032239782039707E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$X$34:$X$65</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$M$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>日内分控线</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8514573564798269E-2"/>
-                  <c:y val="1.4113751851260714E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="500">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.0657293744140166E-2"/>
-                  <c:y val="9.0709653042719603E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="800">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800"/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$M$34:$M$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$F$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>当日收益率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.2856205719046808E-5"/>
-                  <c:y val="-2.0494034813363857E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$F$34:$F$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-0.11121611286873313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0388371968364526E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.0267716882011722E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.0974905984432894E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3633624456833185E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1762538560278255E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.6630581075228773E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3810511860574907E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.768317640285505E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.3989523668063284E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.3989523668063284E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.3989523668063284E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.3989523668063284E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.3989523668063284E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.3181054854066652E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.8684797100846028E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="769457408"/>
-        <c:axId val="769463936"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="692015424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yy/mm/dd" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:txPr>
-          <a:bodyPr rot="-2520000" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="692015968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="692015968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                  <a:alpha val="36000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-                  <a:t>资</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0"/>
-                  <a:t>产类</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="9.2311236984034244E-3"/>
-              <c:y val="0.48414990412026804"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="692015424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="769463936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="769457408"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="769457408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769463936"/>
+        <c:crossAx val="-852956192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16910,19 +11413,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>67234</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>100856</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="图表 19"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16939,149 +11442,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.97289</cdr:x>
-      <cdr:y>0.40574</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99943</cdr:x>
-      <cdr:y>0.61669</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8052848" y="1963262"/>
-          <a:ext cx="219678" cy="1020724"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
-            <a:t>收益及风控类</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.97289</cdr:x>
-      <cdr:y>0.40574</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99943</cdr:x>
-      <cdr:y>0.61669</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8052848" y="1963262"/>
-          <a:ext cx="219678" cy="1020724"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
-            <a:t>收益及风控类</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.59308</cdr:x>
-      <cdr:y>0.03629</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.87131</cdr:x>
-      <cdr:y>0.15101</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="5" name="chart"/>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5039213" y="201603"/>
-          <a:ext cx="2364040" cy="637297"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17278,83 +11639,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.97289</cdr:x>
-      <cdr:y>0.40574</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99943</cdr:x>
-      <cdr:y>0.61669</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8052848" y="1963262"/>
-          <a:ext cx="219678" cy="1020724"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
-            <a:t>收益及风控类</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.97289</cdr:x>
-      <cdr:y>0.40574</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99943</cdr:x>
-      <cdr:y>0.61669</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8052848" y="1963262"/>
-          <a:ext cx="219678" cy="1020724"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
-            <a:t>收益及风控类</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17391,7 +11675,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17501,7 +11785,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17538,7 +11822,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17646,43 +11930,6 @@
     </cdr:pic>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17974,8 +12221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q113" sqref="Q113"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20219,8 +14466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -20526,2227 +14773,6 @@
         <v>42751</v>
       </c>
       <c r="C34" s="46">
-        <v>811.41606400000001</v>
-      </c>
-      <c r="D34" s="17">
-        <v>784.33542183363556</v>
-      </c>
-      <c r="E34" s="17">
-        <v>-27.080642166364445</v>
-      </c>
-      <c r="F34" s="23">
-        <v>-3.5333728743509596E-2</v>
-      </c>
-      <c r="G34" s="53">
-        <v>-28.670355103502221</v>
-      </c>
-      <c r="H34" s="23">
-        <v>-3.1915485651955913E-2</v>
-      </c>
-      <c r="I34" s="30">
-        <v>811.41606400000001</v>
-      </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20">
-        <v>1</v>
-      </c>
-      <c r="M34" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N34" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O34" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q34" s="15">
-        <f>C34/$W$32</f>
-        <v>81.141606400000001</v>
-      </c>
-      <c r="R34" s="25">
-        <f>D34/$W$32</f>
-        <v>78.433542183363556</v>
-      </c>
-      <c r="S34" s="25">
-        <f>G34</f>
-        <v>-28.670355103502221</v>
-      </c>
-      <c r="T34" s="26">
-        <f>H34</f>
-        <v>-3.1915485651955913E-2</v>
-      </c>
-      <c r="U34" s="35">
-        <f>I34/$W$32</f>
-        <v>81.141606400000001</v>
-      </c>
-      <c r="V34" s="27">
-        <f>J34/$W$32</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="29">
-        <f>K34/$W$32</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15">
-        <v>2</v>
-      </c>
-      <c r="B35" s="42">
-        <v>42752</v>
-      </c>
-      <c r="C35" s="46">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17">
-        <v>786.20896057191101</v>
-      </c>
-      <c r="E35" s="17">
-        <v>-26.236845428088888</v>
-      </c>
-      <c r="F35" s="23">
-        <v>1.038588336654612E-3</v>
-      </c>
-      <c r="G35" s="53">
-        <v>0.84379673827555557</v>
-      </c>
-      <c r="H35" s="23">
-        <v>-3.1030953658876096E-2</v>
-      </c>
-      <c r="I35" s="30">
-        <v>812.44580599999995</v>
-      </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20">
-        <v>1</v>
-      </c>
-      <c r="M35" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N35" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O35" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q35" s="15">
-        <f t="shared" ref="Q35:R58" si="0">C35/$W$32</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="25">
-        <f t="shared" si="0"/>
-        <v>78.620896057191104</v>
-      </c>
-      <c r="S35" s="25">
-        <f t="shared" ref="S35:T58" si="1">G35</f>
-        <v>0.84379673827555557</v>
-      </c>
-      <c r="T35" s="26">
-        <f t="shared" si="1"/>
-        <v>-3.1030953658876096E-2</v>
-      </c>
-      <c r="U35" s="35">
-        <f t="shared" ref="U35:W58" si="2">I35/$W$32</f>
-        <v>81.244580599999992</v>
-      </c>
-      <c r="V35" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15">
-        <v>3</v>
-      </c>
-      <c r="B36" s="42">
-        <v>42753</v>
-      </c>
-      <c r="C36" s="46">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17">
-        <v>779.83996324929774</v>
-      </c>
-      <c r="E36" s="17">
-        <v>-29.513858750702219</v>
-      </c>
-      <c r="F36" s="23">
-        <v>-4.0489254928277015E-3</v>
-      </c>
-      <c r="G36" s="53">
-        <v>-3.2770133226133336</v>
-      </c>
-      <c r="H36" s="23">
-        <v>-3.5021945613572789E-2</v>
-      </c>
-      <c r="I36" s="30">
-        <v>809.35382200000004</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20">
-        <v>1</v>
-      </c>
-      <c r="M36" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N36" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O36" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q36" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="25">
-        <f t="shared" si="0"/>
-        <v>77.983996324929777</v>
-      </c>
-      <c r="S36" s="25">
-        <f t="shared" si="1"/>
-        <v>-3.2770133226133336</v>
-      </c>
-      <c r="T36" s="26">
-        <f t="shared" si="1"/>
-        <v>-3.5021945613572789E-2</v>
-      </c>
-      <c r="U36" s="35">
-        <f t="shared" si="2"/>
-        <v>80.935382200000006</v>
-      </c>
-      <c r="V36" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15">
-        <v>4</v>
-      </c>
-      <c r="B37" s="42">
-        <v>42754</v>
-      </c>
-      <c r="C37" s="46">
-        <v>0</v>
-      </c>
-      <c r="D37" s="17">
-        <v>778.26422928268448</v>
-      </c>
-      <c r="E37" s="17">
-        <v>-30.394506717315554</v>
-      </c>
-      <c r="F37" s="23">
-        <v>-1.0890230048950257E-3</v>
-      </c>
-      <c r="G37" s="53">
-        <v>-0.88064796661333344</v>
-      </c>
-      <c r="H37" s="23">
-        <v>-3.6171387655780408E-2</v>
-      </c>
-      <c r="I37" s="30">
-        <v>808.65873599999998</v>
-      </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20">
-        <v>1</v>
-      </c>
-      <c r="M37" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N37" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O37" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="25">
-        <f t="shared" si="0"/>
-        <v>77.826422928268443</v>
-      </c>
-      <c r="S37" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.88064796661333344</v>
-      </c>
-      <c r="T37" s="26">
-        <f t="shared" si="1"/>
-        <v>-3.6171387655780408E-2</v>
-      </c>
-      <c r="U37" s="35">
-        <f t="shared" si="2"/>
-        <v>80.8658736</v>
-      </c>
-      <c r="V37" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
-        <v>5</v>
-      </c>
-      <c r="B38" s="42">
-        <v>42755</v>
-      </c>
-      <c r="C38" s="46">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17">
-        <v>797.16071637207097</v>
-      </c>
-      <c r="E38" s="17">
-        <v>-21.040181627928888</v>
-      </c>
-      <c r="F38" s="23">
-        <v>1.1432797387844798E-2</v>
-      </c>
-      <c r="G38" s="53">
-        <v>9.3543250893866663</v>
-      </c>
-      <c r="H38" s="23">
-        <v>-2.5083109317517126E-2</v>
-      </c>
-      <c r="I38" s="30">
-        <v>818.20089800000005</v>
-      </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20">
-        <v>1</v>
-      </c>
-      <c r="M38" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N38" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O38" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q38" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="25">
-        <f t="shared" si="0"/>
-        <v>79.716071637207094</v>
-      </c>
-      <c r="S38" s="25">
-        <f t="shared" si="1"/>
-        <v>9.3543250893866663</v>
-      </c>
-      <c r="T38" s="26">
-        <f t="shared" si="1"/>
-        <v>-2.5083109317517126E-2</v>
-      </c>
-      <c r="U38" s="35">
-        <f t="shared" si="2"/>
-        <v>81.820089800000005</v>
-      </c>
-      <c r="V38" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15">
-        <v>6</v>
-      </c>
-      <c r="B39" s="42">
-        <v>42758</v>
-      </c>
-      <c r="C39" s="46">
-        <v>827.72599000000002</v>
-      </c>
-      <c r="D39" s="17">
-        <v>815.64739343356439</v>
-      </c>
-      <c r="E39" s="17">
-        <v>-12.078596566435555</v>
-      </c>
-      <c r="F39" s="23">
-        <v>1.1280615802241514E-2</v>
-      </c>
-      <c r="G39" s="53">
-        <v>9.3372588827200005</v>
-      </c>
-      <c r="H39" s="23">
-        <v>-1.4411442759957699E-2</v>
-      </c>
-      <c r="I39" s="30">
-        <v>827.72599000000002</v>
-      </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20">
-        <v>1</v>
-      </c>
-      <c r="M39" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N39" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O39" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q39" s="15">
-        <f t="shared" si="0"/>
-        <v>82.772599</v>
-      </c>
-      <c r="R39" s="25">
-        <f t="shared" si="0"/>
-        <v>81.564739343356436</v>
-      </c>
-      <c r="S39" s="25">
-        <f t="shared" si="1"/>
-        <v>9.3372588827200005</v>
-      </c>
-      <c r="T39" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.4411442759957699E-2</v>
-      </c>
-      <c r="U39" s="35">
-        <f t="shared" si="2"/>
-        <v>82.772599</v>
-      </c>
-      <c r="V39" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15">
-        <v>7</v>
-      </c>
-      <c r="B40" s="42">
-        <v>42759</v>
-      </c>
-      <c r="C40" s="46">
-        <v>0</v>
-      </c>
-      <c r="D40" s="17">
-        <v>813.70755992695103</v>
-      </c>
-      <c r="E40" s="17">
-        <v>-13.141274073048889</v>
-      </c>
-      <c r="F40" s="23">
-        <v>-1.2852137693325132E-3</v>
-      </c>
-      <c r="G40" s="53">
-        <v>-1.0626775066133334</v>
-      </c>
-      <c r="H40" s="23">
-        <v>-1.5691783731016651E-2</v>
-      </c>
-      <c r="I40" s="30">
-        <v>826.84883400000001</v>
-      </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20">
-        <v>1</v>
-      </c>
-      <c r="M40" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N40" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O40" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q40" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="25">
-        <f t="shared" si="0"/>
-        <v>81.370755992695109</v>
-      </c>
-      <c r="S40" s="25">
-        <f t="shared" si="1"/>
-        <v>-1.0626775066133334</v>
-      </c>
-      <c r="T40" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.5691783731016651E-2</v>
-      </c>
-      <c r="U40" s="35">
-        <f t="shared" si="2"/>
-        <v>82.684883400000004</v>
-      </c>
-      <c r="V40" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15">
-        <v>8</v>
-      </c>
-      <c r="B41" s="42">
-        <v>42760</v>
-      </c>
-      <c r="C41" s="46">
-        <v>0</v>
-      </c>
-      <c r="D41" s="17">
-        <v>815.60834363767106</v>
-      </c>
-      <c r="E41" s="17">
-        <v>-12.283856362328889</v>
-      </c>
-      <c r="F41" s="23">
-        <v>1.0356634725148999E-3</v>
-      </c>
-      <c r="G41" s="53">
-        <v>0.85741771072000006</v>
-      </c>
-      <c r="H41" s="23">
-        <v>-1.4677272883064613E-2</v>
-      </c>
-      <c r="I41" s="30">
-        <v>827.8922</v>
-      </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20">
-        <v>1</v>
-      </c>
-      <c r="M41" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N41" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O41" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="25">
-        <f t="shared" si="0"/>
-        <v>81.5608343637671</v>
-      </c>
-      <c r="S41" s="25">
-        <f t="shared" si="1"/>
-        <v>0.85741771072000006</v>
-      </c>
-      <c r="T41" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.4677272883064613E-2</v>
-      </c>
-      <c r="U41" s="35">
-        <f t="shared" si="2"/>
-        <v>82.78922</v>
-      </c>
-      <c r="V41" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15">
-        <v>9</v>
-      </c>
-      <c r="B42" s="42">
-        <v>42761</v>
-      </c>
-      <c r="C42" s="46">
-        <v>0</v>
-      </c>
-      <c r="D42" s="17">
-        <v>830.26823751194661</v>
-      </c>
-      <c r="E42" s="17">
-        <v>-5.0475924880533336</v>
-      </c>
-      <c r="F42" s="23">
-        <v>8.662907626538761E-3</v>
-      </c>
-      <c r="G42" s="53">
-        <v>7.2362638742755561</v>
-      </c>
-      <c r="H42" s="23">
-        <v>-6.0316901519655384E-3</v>
-      </c>
-      <c r="I42" s="30">
-        <v>835.31583000000001</v>
-      </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20">
-        <v>1</v>
-      </c>
-      <c r="M42" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N42" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O42" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q42" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="25">
-        <f t="shared" si="0"/>
-        <v>83.026823751194655</v>
-      </c>
-      <c r="S42" s="25">
-        <f t="shared" si="1"/>
-        <v>7.2362638742755561</v>
-      </c>
-      <c r="T42" s="26">
-        <f t="shared" si="1"/>
-        <v>-6.0316901519655384E-3</v>
-      </c>
-      <c r="U42" s="35">
-        <f t="shared" si="2"/>
-        <v>83.531582999999998</v>
-      </c>
-      <c r="V42" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15">
-        <v>10</v>
-      </c>
-      <c r="B43" s="42">
-        <v>42762</v>
-      </c>
-      <c r="C43" s="46">
-        <v>0</v>
-      </c>
-      <c r="D43" s="17">
-        <v>830.08252108177771</v>
-      </c>
-      <c r="E43" s="17">
-        <v>-5.2333089182222228</v>
-      </c>
-      <c r="F43" s="23">
-        <v>-2.2233079213749473E-4</v>
-      </c>
-      <c r="G43" s="53">
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="H43" s="23">
-        <v>-6.2541861421230409E-3</v>
-      </c>
-      <c r="I43" s="30">
-        <v>835.31583000000001</v>
-      </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20">
-        <v>1</v>
-      </c>
-      <c r="M43" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N43" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O43" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q43" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="25">
-        <f t="shared" si="0"/>
-        <v>83.008252108177771</v>
-      </c>
-      <c r="S43" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="T43" s="26">
-        <f t="shared" si="1"/>
-        <v>-6.2541861421230409E-3</v>
-      </c>
-      <c r="U43" s="35">
-        <f t="shared" si="2"/>
-        <v>83.531582999999998</v>
-      </c>
-      <c r="V43" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15">
-        <v>11</v>
-      </c>
-      <c r="B44" s="42">
-        <v>42765</v>
-      </c>
-      <c r="C44" s="46">
-        <v>835.31583000000001</v>
-      </c>
-      <c r="D44" s="17">
-        <v>829.52537179127103</v>
-      </c>
-      <c r="E44" s="17">
-        <v>-5.7904582087288885</v>
-      </c>
-      <c r="F44" s="23">
-        <v>-2.2233079213749473E-4</v>
-      </c>
-      <c r="G44" s="53">
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="H44" s="23">
-        <v>-6.9205925153859264E-3</v>
-      </c>
-      <c r="I44" s="30">
-        <v>835.31583000000001</v>
-      </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20">
-        <v>1</v>
-      </c>
-      <c r="M44" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N44" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O44" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q44" s="15">
-        <f t="shared" si="0"/>
-        <v>83.531582999999998</v>
-      </c>
-      <c r="R44" s="25">
-        <f t="shared" si="0"/>
-        <v>82.952537179127106</v>
-      </c>
-      <c r="S44" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="T44" s="26">
-        <f t="shared" si="1"/>
-        <v>-6.9205925153859264E-3</v>
-      </c>
-      <c r="U44" s="35">
-        <f t="shared" si="2"/>
-        <v>83.531582999999998</v>
-      </c>
-      <c r="V44" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15">
-        <v>12</v>
-      </c>
-      <c r="B45" s="42">
-        <v>42766</v>
-      </c>
-      <c r="C45" s="46">
-        <v>0</v>
-      </c>
-      <c r="D45" s="17">
-        <v>829.33965536110225</v>
-      </c>
-      <c r="E45" s="17">
-        <v>-5.9761746388977777</v>
-      </c>
-      <c r="F45" s="23">
-        <v>-2.2233079213749473E-4</v>
-      </c>
-      <c r="G45" s="53">
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="H45" s="23">
-        <v>-7.1430926085586429E-3</v>
-      </c>
-      <c r="I45" s="30">
-        <v>835.31583000000001</v>
-      </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="20">
-        <v>1</v>
-      </c>
-      <c r="M45" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N45" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O45" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q45" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="25">
-        <f t="shared" si="0"/>
-        <v>82.933965536110222</v>
-      </c>
-      <c r="S45" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="T45" s="26">
-        <f t="shared" si="1"/>
-        <v>-7.1430926085586429E-3</v>
-      </c>
-      <c r="U45" s="35">
-        <f t="shared" si="2"/>
-        <v>83.531582999999998</v>
-      </c>
-      <c r="V45" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15">
-        <v>13</v>
-      </c>
-      <c r="B46" s="42">
-        <v>42767</v>
-      </c>
-      <c r="C46" s="46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="17">
-        <v>829.15393893093335</v>
-      </c>
-      <c r="E46" s="17">
-        <v>-6.1618910690666668</v>
-      </c>
-      <c r="F46" s="23">
-        <v>-2.2233079213749473E-4</v>
-      </c>
-      <c r="G46" s="53">
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="H46" s="23">
-        <v>-7.3655780021386497E-3</v>
-      </c>
-      <c r="I46" s="30">
-        <v>835.31583000000001</v>
-      </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="20">
-        <v>1</v>
-      </c>
-      <c r="M46" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N46" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O46" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q46" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="25">
-        <f t="shared" si="0"/>
-        <v>82.915393893093338</v>
-      </c>
-      <c r="S46" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="T46" s="26">
-        <f t="shared" si="1"/>
-        <v>-7.3655780021386497E-3</v>
-      </c>
-      <c r="U46" s="35">
-        <f t="shared" si="2"/>
-        <v>83.531582999999998</v>
-      </c>
-      <c r="V46" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15">
-        <v>14</v>
-      </c>
-      <c r="B47" s="42">
-        <v>42768</v>
-      </c>
-      <c r="C47" s="46">
-        <v>0</v>
-      </c>
-      <c r="D47" s="17">
-        <v>828.96822250076445</v>
-      </c>
-      <c r="E47" s="17">
-        <v>-6.347607499235556</v>
-      </c>
-      <c r="F47" s="23">
-        <v>-2.2233079213749473E-4</v>
-      </c>
-      <c r="G47" s="53">
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="H47" s="23">
-        <v>-7.5880505309151511E-3</v>
-      </c>
-      <c r="I47" s="30">
-        <v>835.31583000000001</v>
-      </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="20">
-        <v>1</v>
-      </c>
-      <c r="M47" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N47" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O47" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q47" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="25">
-        <f t="shared" si="0"/>
-        <v>82.89682225007644</v>
-      </c>
-      <c r="S47" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.18571643016888889</v>
-      </c>
-      <c r="T47" s="26">
-        <f t="shared" si="1"/>
-        <v>-7.5880505309151511E-3</v>
-      </c>
-      <c r="U47" s="35">
-        <f t="shared" si="2"/>
-        <v>83.531582999999998</v>
-      </c>
-      <c r="V47" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15">
-        <v>15</v>
-      </c>
-      <c r="B48" s="42">
-        <v>42769</v>
-      </c>
-      <c r="C48" s="46">
-        <v>0</v>
-      </c>
-      <c r="D48" s="17">
-        <v>822.20978445415108</v>
-      </c>
-      <c r="E48" s="17">
-        <v>-9.819319545848888</v>
-      </c>
-      <c r="F48" s="23">
-        <v>-4.1725848650281516E-3</v>
-      </c>
-      <c r="G48" s="53">
-        <v>-3.4717120466133338</v>
-      </c>
-      <c r="H48" s="23">
-        <v>-1.1740726043755393E-2</v>
-      </c>
-      <c r="I48" s="30">
-        <v>832.02910399999996</v>
-      </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20">
-        <v>1</v>
-      </c>
-      <c r="M48" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N48" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O48" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q48" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="25">
-        <f t="shared" si="0"/>
-        <v>82.220978445415113</v>
-      </c>
-      <c r="S48" s="25">
-        <f t="shared" si="1"/>
-        <v>-3.4717120466133338</v>
-      </c>
-      <c r="T48" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.1740726043755393E-2</v>
-      </c>
-      <c r="U48" s="35">
-        <f t="shared" si="2"/>
-        <v>83.202910399999993</v>
-      </c>
-      <c r="V48" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15">
-        <v>16</v>
-      </c>
-      <c r="B49" s="42">
-        <v>42772</v>
-      </c>
-      <c r="C49" s="46">
-        <v>839.15083000000004</v>
-      </c>
-      <c r="D49" s="17">
-        <v>835.89596532497762</v>
-      </c>
-      <c r="E49" s="17">
-        <v>-3.2548646750222221</v>
-      </c>
-      <c r="F49" s="23">
-        <v>8.2636240305611498E-3</v>
-      </c>
-      <c r="G49" s="53">
-        <v>6.9344269640533334</v>
-      </c>
-      <c r="H49" s="23">
-        <v>-3.891262248389927E-3</v>
-      </c>
-      <c r="I49" s="30">
-        <v>839.15083000000004</v>
-      </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20">
-        <v>1</v>
-      </c>
-      <c r="M49" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N49" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O49" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q49" s="15">
-        <f t="shared" si="0"/>
-        <v>83.91508300000001</v>
-      </c>
-      <c r="R49" s="25">
-        <f t="shared" si="0"/>
-        <v>83.589596532497765</v>
-      </c>
-      <c r="S49" s="25">
-        <f t="shared" si="1"/>
-        <v>6.9344269640533334</v>
-      </c>
-      <c r="T49" s="26">
-        <f t="shared" si="1"/>
-        <v>-3.891262248389927E-3</v>
-      </c>
-      <c r="U49" s="35">
-        <f t="shared" si="2"/>
-        <v>83.91508300000001</v>
-      </c>
-      <c r="V49" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15">
-        <v>17</v>
-      </c>
-      <c r="B50" s="42">
-        <v>42773</v>
-      </c>
-      <c r="C50" s="46">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17">
-        <v>834.64467930458659</v>
-      </c>
-      <c r="E50" s="17">
-        <v>-3.9733066954133336</v>
-      </c>
-      <c r="F50" s="23">
-        <v>-8.5669760532790576E-4</v>
-      </c>
-      <c r="G50" s="53">
-        <v>-0.71844202039111116</v>
-      </c>
-      <c r="H50" s="23">
-        <v>-4.7497205138949941E-3</v>
-      </c>
-      <c r="I50" s="30">
-        <v>838.61798599999997</v>
-      </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20">
-        <v>1</v>
-      </c>
-      <c r="M50" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N50" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O50" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q50" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="25">
-        <f t="shared" si="0"/>
-        <v>83.464467930458653</v>
-      </c>
-      <c r="S50" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.71844202039111116</v>
-      </c>
-      <c r="T50" s="26">
-        <f t="shared" si="1"/>
-        <v>-4.7497205138949941E-3</v>
-      </c>
-      <c r="U50" s="35">
-        <f t="shared" si="2"/>
-        <v>83.8617986</v>
-      </c>
-      <c r="V50" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15">
-        <v>18</v>
-      </c>
-      <c r="B51" s="42">
-        <v>42774</v>
-      </c>
-      <c r="C51" s="46">
-        <v>0</v>
-      </c>
-      <c r="D51" s="17">
-        <v>835.28387120775108</v>
-      </c>
-      <c r="E51" s="17">
-        <v>-3.7466147922488893</v>
-      </c>
-      <c r="F51" s="23">
-        <v>2.701831541845125E-4</v>
-      </c>
-      <c r="G51" s="53">
-        <v>0.22669190316444446</v>
-      </c>
-      <c r="H51" s="23">
-        <v>-4.4782541749205842E-3</v>
-      </c>
-      <c r="I51" s="30">
-        <v>839.030486</v>
-      </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20">
-        <v>1</v>
-      </c>
-      <c r="M51" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N51" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O51" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q51" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="25">
-        <f t="shared" si="0"/>
-        <v>83.528387120775108</v>
-      </c>
-      <c r="S51" s="25">
-        <f t="shared" si="1"/>
-        <v>0.22669190316444446</v>
-      </c>
-      <c r="T51" s="26">
-        <f t="shared" si="1"/>
-        <v>-4.4782541749205842E-3</v>
-      </c>
-      <c r="U51" s="35">
-        <f t="shared" si="2"/>
-        <v>83.903048600000005</v>
-      </c>
-      <c r="V51" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15">
-        <v>19</v>
-      </c>
-      <c r="B52" s="42">
-        <v>42775</v>
-      </c>
-      <c r="C52" s="46">
-        <v>0</v>
-      </c>
-      <c r="D52" s="17">
-        <v>839.6854090260266</v>
-      </c>
-      <c r="E52" s="17">
-        <v>-1.6389589739733332</v>
-      </c>
-      <c r="F52" s="23">
-        <v>2.5051643556763779E-3</v>
-      </c>
-      <c r="G52" s="53">
-        <v>2.107655818275556</v>
-      </c>
-      <c r="H52" s="23">
-        <v>-1.9586356228977158E-3</v>
-      </c>
-      <c r="I52" s="30">
-        <v>841.32436800000005</v>
-      </c>
-      <c r="J52" s="18"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20">
-        <v>1</v>
-      </c>
-      <c r="M52" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N52" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O52" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q52" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="25">
-        <f t="shared" si="0"/>
-        <v>83.968540902602655</v>
-      </c>
-      <c r="S52" s="25">
-        <f t="shared" si="1"/>
-        <v>2.107655818275556</v>
-      </c>
-      <c r="T52" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.9586356228977158E-3</v>
-      </c>
-      <c r="U52" s="35">
-        <f t="shared" si="2"/>
-        <v>84.132436800000008</v>
-      </c>
-      <c r="V52" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X52" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15">
-        <v>20</v>
-      </c>
-      <c r="B53" s="42">
-        <v>42776</v>
-      </c>
-      <c r="C53" s="46">
-        <v>0</v>
-      </c>
-      <c r="D53" s="17">
-        <v>838.00468672607997</v>
-      </c>
-      <c r="E53" s="17">
-        <v>-2.57209527392</v>
-      </c>
-      <c r="F53" s="23">
-        <v>-1.1101142928626202E-3</v>
-      </c>
-      <c r="G53" s="53">
-        <v>-0.93313629994666669</v>
-      </c>
-      <c r="H53" s="23">
-        <v>-3.0733147680383709E-3</v>
-      </c>
-      <c r="I53" s="30">
-        <v>840.57678199999998</v>
-      </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="20">
-        <v>1</v>
-      </c>
-      <c r="M53" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N53" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O53" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q53" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="25">
-        <f t="shared" si="0"/>
-        <v>83.800468672607991</v>
-      </c>
-      <c r="S53" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.93313629994666669</v>
-      </c>
-      <c r="T53" s="26">
-        <f t="shared" si="1"/>
-        <v>-3.0733147680383709E-3</v>
-      </c>
-      <c r="U53" s="35">
-        <f t="shared" si="2"/>
-        <v>84.057678199999998</v>
-      </c>
-      <c r="V53" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15">
-        <v>21</v>
-      </c>
-      <c r="B54" s="42">
-        <v>42779</v>
-      </c>
-      <c r="C54" s="46">
-        <v>843.99824999999998</v>
-      </c>
-      <c r="D54" s="17">
-        <v>844.29004536979551</v>
-      </c>
-      <c r="E54" s="17">
-        <v>0.29179536979555559</v>
-      </c>
-      <c r="F54" s="23">
-        <v>3.832935961192916E-3</v>
-      </c>
-      <c r="G54" s="53">
-        <v>3.234991243608889</v>
-      </c>
-      <c r="H54" s="23">
-        <v>3.485618006263018E-4</v>
-      </c>
-      <c r="I54" s="30">
-        <v>843.99824999999998</v>
-      </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20">
-        <v>1</v>
-      </c>
-      <c r="M54" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N54" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O54" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q54" s="15">
-        <f t="shared" si="0"/>
-        <v>84.399824999999993</v>
-      </c>
-      <c r="R54" s="25">
-        <f t="shared" si="0"/>
-        <v>84.429004536979548</v>
-      </c>
-      <c r="S54" s="25">
-        <f t="shared" si="1"/>
-        <v>3.234991243608889</v>
-      </c>
-      <c r="T54" s="26">
-        <f t="shared" si="1"/>
-        <v>3.485618006263018E-4</v>
-      </c>
-      <c r="U54" s="35">
-        <f t="shared" si="2"/>
-        <v>84.399824999999993</v>
-      </c>
-      <c r="V54" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="15">
-        <v>22</v>
-      </c>
-      <c r="B55" s="42">
-        <v>42780</v>
-      </c>
-      <c r="C55" s="46">
-        <v>0</v>
-      </c>
-      <c r="D55" s="17">
-        <v>839.30089471384872</v>
-      </c>
-      <c r="E55" s="17">
-        <v>-2.2953712861511111</v>
-      </c>
-      <c r="F55" s="23">
-        <v>-3.074118506066027E-3</v>
-      </c>
-      <c r="G55" s="53">
-        <v>-2.5871666559466666</v>
-      </c>
-      <c r="H55" s="23">
-        <v>-2.7414612773253972E-3</v>
-      </c>
-      <c r="I55" s="30">
-        <v>841.59626600000001</v>
-      </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20">
-        <v>1</v>
-      </c>
-      <c r="M55" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N55" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O55" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q55" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="25">
-        <f t="shared" si="0"/>
-        <v>83.930089471384875</v>
-      </c>
-      <c r="S55" s="25">
-        <f t="shared" si="1"/>
-        <v>-2.5871666559466666</v>
-      </c>
-      <c r="T55" s="26">
-        <f t="shared" si="1"/>
-        <v>-2.7414612773253972E-3</v>
-      </c>
-      <c r="U55" s="35">
-        <f t="shared" si="2"/>
-        <v>84.159626599999996</v>
-      </c>
-      <c r="V55" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X55" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15">
-        <v>23</v>
-      </c>
-      <c r="B56" s="42">
-        <v>42781</v>
-      </c>
-      <c r="C56" s="46">
-        <v>0</v>
-      </c>
-      <c r="D56" s="17">
-        <v>818.89533718234657</v>
-      </c>
-      <c r="E56" s="17">
-        <v>-12.589884817653333</v>
-      </c>
-      <c r="F56" s="23">
-        <v>-1.2380873717443197E-2</v>
-      </c>
-      <c r="G56" s="53">
-        <v>-10.294513531502222</v>
-      </c>
-      <c r="H56" s="23">
-        <v>-1.5039798715978761E-2</v>
-      </c>
-      <c r="I56" s="30">
-        <v>831.48522200000002</v>
-      </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20">
-        <v>1</v>
-      </c>
-      <c r="M56" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N56" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O56" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q56" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="25">
-        <f t="shared" si="0"/>
-        <v>81.889533718234659</v>
-      </c>
-      <c r="S56" s="25">
-        <f t="shared" si="1"/>
-        <v>-10.294513531502222</v>
-      </c>
-      <c r="T56" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.5039798715978761E-2</v>
-      </c>
-      <c r="U56" s="35">
-        <f t="shared" si="2"/>
-        <v>83.148522200000002</v>
-      </c>
-      <c r="V56" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X56" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="15">
-        <v>24</v>
-      </c>
-      <c r="B57" s="42">
-        <v>42782</v>
-      </c>
-      <c r="C57" s="46">
-        <v>0</v>
-      </c>
-      <c r="D57" s="17">
-        <v>830.80191301484433</v>
-      </c>
-      <c r="E57" s="17">
-        <v>-6.7301269851555556</v>
-      </c>
-      <c r="F57" s="23">
-        <v>6.996458108632809E-3</v>
-      </c>
-      <c r="G57" s="53">
-        <v>5.8597578324977775</v>
-      </c>
-      <c r="H57" s="23">
-        <v>-8.0396474292998218E-3</v>
-      </c>
-      <c r="I57" s="30">
-        <v>837.53204000000005</v>
-      </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20">
-        <v>1</v>
-      </c>
-      <c r="M57" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N57" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O57" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q57" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="25">
-        <f t="shared" si="0"/>
-        <v>83.080191301484433</v>
-      </c>
-      <c r="S57" s="25">
-        <f t="shared" si="1"/>
-        <v>5.8597578324977775</v>
-      </c>
-      <c r="T57" s="26">
-        <f t="shared" si="1"/>
-        <v>-8.0396474292998218E-3</v>
-      </c>
-      <c r="U57" s="35">
-        <f t="shared" si="2"/>
-        <v>83.753204000000011</v>
-      </c>
-      <c r="V57" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="15">
-        <v>25</v>
-      </c>
-      <c r="B58" s="42">
-        <v>42783</v>
-      </c>
-      <c r="C58" s="46">
-        <v>0</v>
-      </c>
-      <c r="D58" s="17">
-        <v>817.25026185356433</v>
-      </c>
-      <c r="E58" s="17">
-        <v>-13.598068146435555</v>
-      </c>
-      <c r="F58" s="23">
-        <v>-8.2661791728942894E-3</v>
-      </c>
-      <c r="G58" s="53">
-        <v>-6.8679411612800001</v>
-      </c>
-      <c r="H58" s="23">
-        <v>-1.6247400652450558E-2</v>
-      </c>
-      <c r="I58" s="30">
-        <v>830.84833000000003</v>
-      </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="20">
-        <v>1</v>
-      </c>
-      <c r="M58" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="N58" s="34">
-        <v>-0.08</v>
-      </c>
-      <c r="O58" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="Q58" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="25">
-        <f t="shared" si="0"/>
-        <v>81.725026185356427</v>
-      </c>
-      <c r="S58" s="25">
-        <f t="shared" si="1"/>
-        <v>-6.8679411612800001</v>
-      </c>
-      <c r="T58" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.6247400652450558E-2</v>
-      </c>
-      <c r="U58" s="35">
-        <f t="shared" si="2"/>
-        <v>83.084833000000003</v>
-      </c>
-      <c r="V58" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-      <c r="C59" s="47"/>
-      <c r="J59" s="2"/>
-      <c r="M59" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X59" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-      <c r="M60" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X60" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="M61" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X61" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="M62" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X62" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="M63" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X63" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="M64" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X64" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="13:24" x14ac:dyDescent="0.15">
-      <c r="M65" s="21">
-        <v>-0.05</v>
-      </c>
-      <c r="X65" s="28">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.4" right="0.26" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y65"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="39" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="9" style="48" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="48" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5" style="10" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="6.75" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="8.375" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.75" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.375" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="5.875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E2" s="51"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E3" s="51"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E4" s="51"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E5" s="51"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E6" s="51"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E7" s="51"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E8" s="51"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E9" s="51"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E10" s="51"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E11" s="51"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E12" s="51"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E13" s="51"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E14" s="51"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E15" s="51"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E16" s="51"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E17" s="51"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E18" s="51"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E19" s="51"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E20" s="51"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E21" s="51"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E22" s="51"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E23" s="51"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E24" s="51"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E25" s="51"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E26" s="51"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E27" s="51"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E28" s="51"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E29" s="51"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="E30" s="51"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="40"/>
-      <c r="C31" s="44">
-        <v>2</v>
-      </c>
-      <c r="D31" s="49">
-        <v>3</v>
-      </c>
-      <c r="E31" s="49">
-        <v>4</v>
-      </c>
-      <c r="F31" s="8">
-        <v>5</v>
-      </c>
-      <c r="G31" s="49">
-        <v>6</v>
-      </c>
-      <c r="H31" s="8">
-        <v>7</v>
-      </c>
-      <c r="I31" s="8">
-        <v>8</v>
-      </c>
-      <c r="J31" s="8">
-        <v>9</v>
-      </c>
-      <c r="K31" s="8">
-        <v>10</v>
-      </c>
-      <c r="L31" s="8">
-        <v>11</v>
-      </c>
-      <c r="M31" s="8">
-        <v>13</v>
-      </c>
-      <c r="N31" s="8">
-        <v>16</v>
-      </c>
-      <c r="O31" s="8">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-    </row>
-    <row r="32" spans="2:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="40"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="8"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="5">
-        <v>10</v>
-      </c>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R33" s="11" t="str">
-        <f>"净资产"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
-        <v>净资产(单位:10万元)</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="11" t="str">
-        <f>"持仓市值"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
-        <v>持仓市值(单位:10万元)</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="13" t="str">
-        <f>"资金可用额度"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
-        <v>资金可用额度(单位:10万元)</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
-        <v>1</v>
-      </c>
-      <c r="B34" s="42">
-        <v>42751</v>
-      </c>
-      <c r="C34" s="46">
         <v>187.76</v>
       </c>
       <c r="D34" s="17">

--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
@@ -9,14 +9,18 @@
   <sheets>
     <sheet name="波段" sheetId="151" r:id="rId1"/>
     <sheet name="合计" sheetId="168" r:id="rId2"/>
-    <sheet name="檀显峰" sheetId="176" r:id="rId3"/>
+    <sheet name="檀显峰（基金）" sheetId="176" r:id="rId3"/>
+    <sheet name="檀显峰 （统管）" sheetId="177" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">波段!$A$1:$O$120</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -961,8 +965,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-852937152"/>
-        <c:axId val="-852954560"/>
+        <c:axId val="1600930240"/>
+        <c:axId val="1600923712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2075,8 +2079,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852937152"/>
-        <c:axId val="-852954560"/>
+        <c:axId val="1600930240"/>
+        <c:axId val="1600923712"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2967,11 +2971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852939872"/>
-        <c:axId val="-852937696"/>
+        <c:axId val="1600917728"/>
+        <c:axId val="1600920448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-852937152"/>
+        <c:axId val="1600930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +2995,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852954560"/>
+        <c:crossAx val="1600923712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2999,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-852954560"/>
+        <c:axId val="1600923712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,12 +3075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852937152"/>
+        <c:crossAx val="1600930240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-852937696"/>
+        <c:axId val="1600920448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,12 +3100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852939872"/>
+        <c:crossAx val="1600917728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-852939872"/>
+        <c:axId val="1600917728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,7 +3114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-852937696"/>
+        <c:crossAx val="1600920448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3186,7 +3190,7 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>檀显峰</a:t>
+              <a:t>檀显峰（基金）</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -3256,7 +3260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$U$33</c:f>
+              <c:f>'檀显峰（基金）'!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3337,7 +3341,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3421,7 +3425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$U$34:$U$65</c:f>
+              <c:f>'檀显峰（基金）'!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -3509,7 +3513,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$Q$33</c:f>
+              <c:f>'檀显峰（基金）'!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3550,7 +3554,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3634,7 +3638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$Q$34:$Q$65</c:f>
+              <c:f>'檀显峰（基金）'!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3727,8 +3731,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-852952928"/>
-        <c:axId val="-852943680"/>
+        <c:axId val="1600918272"/>
+        <c:axId val="1599219136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3738,7 +3742,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$R$33</c:f>
+              <c:f>'檀显峰（基金）'!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3889,7 +3893,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3973,7 +3977,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$R$34:$R$65</c:f>
+              <c:f>'檀显峰（基金）'!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -4062,7 +4066,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$V$33</c:f>
+              <c:f>'檀显峰（基金）'!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4154,7 +4158,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4238,7 +4242,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$V$34:$V$65</c:f>
+              <c:f>'檀显峰（基金）'!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4327,7 +4331,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$G$33</c:f>
+              <c:f>'檀显峰（基金）'!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4469,7 +4473,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4553,7 +4557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$G$34:$G$65</c:f>
+              <c:f>'檀显峰（基金）'!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4642,7 +4646,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$E$33</c:f>
+              <c:f>'檀显峰（基金）'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4737,7 +4741,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$E$34:$E$65</c:f>
+              <c:f>'檀显峰（基金）'!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -4831,8 +4835,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852952928"/>
-        <c:axId val="-852943680"/>
+        <c:axId val="1600918272"/>
+        <c:axId val="1599219136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4842,7 +4846,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$H$33</c:f>
+              <c:f>'檀显峰（基金）'!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4988,7 +4992,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$H$34:$H$65</c:f>
+              <c:f>'檀显峰（基金）'!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5077,7 +5081,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$X$33</c:f>
+              <c:f>'檀显峰（基金）'!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5178,7 +5182,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$X$34:$X$65</c:f>
+              <c:f>'檀显峰（基金）'!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5288,7 +5292,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$M$33</c:f>
+              <c:f>'檀显峰（基金）'!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5411,7 +5415,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$M$34:$M$65</c:f>
+              <c:f>'檀显峰（基金）'!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5521,7 +5525,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$F$33</c:f>
+              <c:f>'檀显峰（基金）'!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5619,7 +5623,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$F$34:$F$65</c:f>
+              <c:f>'檀显峰（基金）'!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5713,11 +5717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852939328"/>
-        <c:axId val="-852943136"/>
+        <c:axId val="1749059056"/>
+        <c:axId val="1749049264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-852952928"/>
+        <c:axId val="1600918272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5737,7 +5741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852943680"/>
+        <c:crossAx val="1599219136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5745,7 +5749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-852943680"/>
+        <c:axId val="1599219136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5817,12 +5821,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852952928"/>
+        <c:crossAx val="1600918272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-852943136"/>
+        <c:axId val="1749049264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,12 +5846,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852939328"/>
+        <c:crossAx val="1749059056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-852939328"/>
+        <c:axId val="1749059056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5856,7 +5860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-852943136"/>
+        <c:crossAx val="1749049264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5885,6 +5889,2752 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>檀显峰（统管）</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>波段</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>收益合计表（近</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>月）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18388532319670875"/>
+          <c:y val="6.5366767072050483E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4339452731331501E-2"/>
+          <c:y val="0.15806396487584293"/>
+          <c:w val="0.85978331983786149"/>
+          <c:h val="0.74576157112247443"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$U$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>持仓市值(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11359685638471531"/>
+                  <c:y val="-0.48009530620881857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="40000"/>
+                          <a:lumOff val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$U$34:$U$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>18.776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.952000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.163999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$Q$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>周一</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$Q$34:$Q$65</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>18.776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-68"/>
+        <c:axId val="1880335520"/>
+        <c:axId val="1887723024"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$R$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5008515703862745E-3"/>
+                  <c:y val="9.5321176968723113E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6082566342074091E-2"/>
+                  <c:y val="-3.3872895352698877E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$R$34:$R$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.7940060622717779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1413101048262222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3927359251584441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1721030788240001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0713457880451109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4171343601528887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7965459582628887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3278295563728886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0190953767051116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0144385303706667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0004679913673327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9958111450328877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9911542986984454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9864974523640004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4858957171406662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3577625018626662</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.206388497014888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-14.206679166157333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14.206969835299777</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-14.207260504442221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-14.208132511869556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-14.208423181012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-14.208713850154444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-14.209004519296888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-14.209295188439333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$V$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投入资金线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12932128820624067"/>
+                  <c:y val="-8.1609001525972426E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="700">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$V$34:$V$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日收益额（万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.159420078161346E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$G$34:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-20.881937352233336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7130404255444445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7657417966777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1263284633444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4724270922111113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7530315366555556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.1258840189000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6328359811000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4326582033222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5260173522333331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7954525144333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3740048477777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益额(万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.4293510001653669E-7"/>
+                  <c:y val="-9.2457726650289011E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$E$34:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-149.81993937728222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-148.10689895173778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-151.87264074841553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-152.99896921176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-148.52654211954888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-146.8686563984711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-149.9945404173711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-147.36170443627111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-143.92904623294891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-143.97561469629332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-144.11532008632665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-144.16188854967109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-144.20845701301553</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-144.25502547635998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-146.78104282859331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-142.07762501862666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-142.06388497014888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-142.06679166157332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-142.06969835299776</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-142.0726050444222</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-142.08132511869556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-142.08423181012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-142.08713850154444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-142.09004519296889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-142.09295188439333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1880335520"/>
+        <c:axId val="1887723024"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9928918817807705E-3"/>
+                  <c:y val="7.1884044846003414E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$H$34:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.75165395368538923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.72947175169763123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.73764522602955385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.7346579338153939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.70520601687039863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.69021097646617802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.69919433075215454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.68154383635122562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.66048203173857833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.65609557785627448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.65262103652936365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.64913770603152443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.64600966665225845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.64318771666332075</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.65192603658342974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.63892674854902476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.65725778659488987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.65727123438686275</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.65728468217883562</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.6572981299708085</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.65733847334672735</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.65735192113870022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.6573653689306731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.6573788167226462</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.65739226451461907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$X$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基准</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11791673924075864"/>
+                  <c:y val="1.1421109808125439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4906272454350591E-2"/>
+                  <c:y val="-6.8032239782039707E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$X$34:$X$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日内分控线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8514573564798269E-2"/>
+                  <c:y val="1.4113751851260714E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="500">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0657293744140166E-2"/>
+                  <c:y val="9.0709653042719603E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$M$34:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>当日收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2856205719046808E-5"/>
+                  <c:y val="-2.0494034813363857E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$F$34:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.11121611286873313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0388371968364526E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0267716882011722E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0974905984432894E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3633624456833185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1762538560278255E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6630581075228773E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3810511860574907E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.768317640285505E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3181054854066652E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8684797100846028E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1887724656"/>
+        <c:axId val="1887723568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1880335520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yy/mm/dd" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr rot="-2520000" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887723024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1887723024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="36000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+                  <a:t>资</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0"/>
+                  <a:t>产类</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.2311236984034244E-3"/>
+              <c:y val="0.48414990412026804"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880335520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887723568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887724656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1887724656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1887723568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6473,8 +9223,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-852942592"/>
-        <c:axId val="-852928992"/>
+        <c:axId val="1749063408"/>
+        <c:axId val="1749052528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7577,8 +10327,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852942592"/>
-        <c:axId val="-852928992"/>
+        <c:axId val="1749063408"/>
+        <c:axId val="1749052528"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8459,11 +11209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852933888"/>
-        <c:axId val="-852942048"/>
+        <c:axId val="1749060144"/>
+        <c:axId val="1749062320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-852942592"/>
+        <c:axId val="1749063408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8483,7 +11233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852928992"/>
+        <c:crossAx val="1749052528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8491,7 +11241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-852928992"/>
+        <c:axId val="1749052528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8563,12 +11313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852942592"/>
+        <c:crossAx val="1749063408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-852942048"/>
+        <c:axId val="1749062320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8588,12 +11338,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852933888"/>
+        <c:crossAx val="1749060144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-852933888"/>
+        <c:axId val="1749060144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8602,7 +11352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-852942048"/>
+        <c:crossAx val="1749062320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8630,7 +11380,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8678,7 +11428,7 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>檀显峰</a:t>
+              <a:t>檀显峰（基金）</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -8748,7 +11498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$U$33</c:f>
+              <c:f>'檀显峰（基金）'!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8829,7 +11579,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -8913,7 +11663,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$U$34:$U$65</c:f>
+              <c:f>'檀显峰（基金）'!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -9001,7 +11751,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$Q$33</c:f>
+              <c:f>'檀显峰（基金）'!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9042,7 +11792,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9126,7 +11876,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$Q$34:$Q$65</c:f>
+              <c:f>'檀显峰（基金）'!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9219,8 +11969,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-852940960"/>
-        <c:axId val="-852948032"/>
+        <c:axId val="1749049808"/>
+        <c:axId val="1749056336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9230,7 +11980,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$R$33</c:f>
+              <c:f>'檀显峰（基金）'!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9381,7 +12131,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9465,7 +12215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$R$34:$R$65</c:f>
+              <c:f>'檀显峰（基金）'!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -9554,7 +12304,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$V$33</c:f>
+              <c:f>'檀显峰（基金）'!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9646,7 +12396,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9730,7 +12480,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$V$34:$V$65</c:f>
+              <c:f>'檀显峰（基金）'!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9819,7 +12569,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$G$33</c:f>
+              <c:f>'檀显峰（基金）'!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9961,7 +12711,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（基金）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10045,7 +12795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$G$34:$G$65</c:f>
+              <c:f>'檀显峰（基金）'!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10134,7 +12884,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$E$33</c:f>
+              <c:f>'檀显峰（基金）'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10229,7 +12979,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$E$34:$E$65</c:f>
+              <c:f>'檀显峰（基金）'!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10323,8 +13073,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852940960"/>
-        <c:axId val="-852948032"/>
+        <c:axId val="1749049808"/>
+        <c:axId val="1749056336"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10334,7 +13084,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$H$33</c:f>
+              <c:f>'檀显峰（基金）'!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10480,7 +13230,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$H$34:$H$65</c:f>
+              <c:f>'檀显峰（基金）'!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10569,7 +13319,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$X$33</c:f>
+              <c:f>'檀显峰（基金）'!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10670,7 +13420,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$X$34:$X$65</c:f>
+              <c:f>'檀显峰（基金）'!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10780,7 +13530,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$M$33</c:f>
+              <c:f>'檀显峰（基金）'!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10903,7 +13653,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$M$34:$M$65</c:f>
+              <c:f>'檀显峰（基金）'!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11013,7 +13763,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$F$33</c:f>
+              <c:f>'檀显峰（基金）'!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11111,7 +13861,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$F$34:$F$65</c:f>
+              <c:f>'檀显峰（基金）'!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11205,11 +13955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-852941504"/>
-        <c:axId val="-852956192"/>
+        <c:axId val="1749050352"/>
+        <c:axId val="1749055248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-852940960"/>
+        <c:axId val="1749049808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11229,7 +13979,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852948032"/>
+        <c:crossAx val="1749056336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11237,7 +13987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-852948032"/>
+        <c:axId val="1749056336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11309,12 +14059,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852940960"/>
+        <c:crossAx val="1749049808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-852956192"/>
+        <c:axId val="1749055248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11334,12 +14084,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852941504"/>
+        <c:crossAx val="1749050352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-852941504"/>
+        <c:axId val="1749050352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11348,7 +14098,2753 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-852956192"/>
+        <c:crossAx val="1749055248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>檀显峰（统管）</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>波段</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>收益合计表（近</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>月）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18388532319670875"/>
+          <c:y val="6.5366767072050483E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4339452731331501E-2"/>
+          <c:y val="0.15806396487584293"/>
+          <c:w val="0.85978331983786149"/>
+          <c:h val="0.74576157112247443"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$U$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>持仓市值(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11359685638471531"/>
+                  <c:y val="-0.48009530620881857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="40000"/>
+                          <a:lumOff val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$U$34:$U$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>18.776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.952000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.163999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$Q$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>周一</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$Q$34:$Q$65</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>18.776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-68"/>
+        <c:axId val="1880327904"/>
+        <c:axId val="1880322464"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$R$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产(单位:10万元)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5008515703862745E-3"/>
+                  <c:y val="9.5321176968723113E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6082566342074091E-2"/>
+                  <c:y val="-3.3872895352698877E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$R$34:$R$65</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.7940060622717779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1413101048262222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3927359251584441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1721030788240001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0713457880451109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4171343601528887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7965459582628887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3278295563728886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0190953767051116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0144385303706667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0004679913673327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9958111450328877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9911542986984454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9864974523640004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4858957171406662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3577625018626662</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.206388497014888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-14.206679166157333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14.206969835299777</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-14.207260504442221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-14.208132511869556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-14.208423181012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-14.208713850154444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-14.209004519296888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-14.209295188439333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$V$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投入资金线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12932128820624067"/>
+                  <c:y val="-8.1609001525972426E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="700">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$V$34:$V$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日收益额（万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.159420078161346E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>yy/mm/dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$G$34:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-20.881937352233336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7130404255444445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7657417966777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1263284633444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4724270922111113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7530315366555556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.1258840189000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6328359811000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4326582033222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.6568463344444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5260173522333331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7954525144333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3740048477777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.9066914244444447E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益额(万元）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.4293510001653669E-7"/>
+                  <c:y val="-9.2457726650289011E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$E$34:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-149.81993937728222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-148.10689895173778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-151.87264074841553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-152.99896921176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-148.52654211954888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-146.8686563984711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-149.9945404173711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-147.36170443627111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-143.92904623294891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-143.97561469629332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-144.11532008632665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-144.16188854967109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-144.20845701301553</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-144.25502547635998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-146.78104282859331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-142.07762501862666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-142.06388497014888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-142.06679166157332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-142.06969835299776</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-142.0726050444222</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-142.08132511869556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-142.08423181012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-142.08713850154444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-142.09004519296889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-142.09295188439333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1880327904"/>
+        <c:axId val="1880322464"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累计收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9928918817807705E-3"/>
+                  <c:y val="7.1884044846003414E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$H$34:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.75165395368538923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.72947175169763123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.73764522602955385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.7346579338153939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.70520601687039863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.69021097646617802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.69919433075215454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.68154383635122562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.66048203173857833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.65609557785627448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.65262103652936365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.64913770603152443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.64600966665225845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.64318771666332075</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.65192603658342974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.63892674854902476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.65725778659488987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.65727123438686275</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.65728468217883562</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.6572981299708085</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.65733847334672735</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.65735192113870022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.6573653689306731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.6573788167226462</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.65739226451461907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$X$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基准</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11791673924075864"/>
+                  <c:y val="1.1421109808125439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4906272454350591E-2"/>
+                  <c:y val="-6.8032239782039707E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$X$34:$X$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日内分控线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8514573564798269E-2"/>
+                  <c:y val="1.4113751851260714E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="500">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0657293744140166E-2"/>
+                  <c:y val="9.0709653042719603E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$M$34:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'檀显峰 （统管）'!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>当日收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2856205719046808E-5"/>
+                  <c:y val="-2.0494034813363857E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'檀显峰 （统管）'!$F$34:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.11121611286873313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0388371968364526E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0267716882011722E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0974905984432894E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3633624456833185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1762538560278255E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6630581075228773E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3810511860574907E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.768317640285505E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3989523668063284E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3181054854066652E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8684797100846028E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1880329536"/>
+        <c:axId val="1880336064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1880327904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yy/mm/dd" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr rot="-2520000" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880322464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1880322464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="36000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+                  <a:t>资</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0"/>
+                  <a:t>产类</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.2311236984034244E-3"/>
+              <c:y val="0.48414990412026804"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880327904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1880336064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880329536"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1880329536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1880336064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11442,7 +16938,149 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59308</cdr:x>
+      <cdr:y>0.03629</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87131</cdr:x>
+      <cdr:y>0.15101</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="5" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5039213" y="201603"/>
+          <a:ext cx="2364040" cy="637297"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11639,43 +17277,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -11785,7 +17386,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11822,7 +17423,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -11930,6 +17531,190 @@
     </cdr:pic>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97289</cdr:x>
+      <cdr:y>0.40574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99943</cdr:x>
+      <cdr:y>0.61669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8052848" y="1963262"/>
+          <a:ext cx="219678" cy="1020724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1"/>
+            <a:t>收益及风控类</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59308</cdr:x>
+      <cdr:y>0.03629</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87131</cdr:x>
+      <cdr:y>0.15101</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="5" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5039213" y="201603"/>
+          <a:ext cx="2364040" cy="637297"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12221,8 +18006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A60" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16681,4 +22466,2225 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y65"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="39" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="9" style="48" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="48" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5" style="10" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="6.75" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="8.375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.75" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="5.875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E2" s="51"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E3" s="51"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E4" s="51"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E5" s="51"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E6" s="51"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E7" s="51"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E8" s="51"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E9" s="51"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E10" s="51"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E11" s="51"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E12" s="51"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E13" s="51"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E14" s="51"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E15" s="51"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E16" s="51"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E17" s="51"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E18" s="51"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E19" s="51"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E20" s="51"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E21" s="51"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E22" s="51"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E23" s="51"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E24" s="51"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E25" s="51"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E26" s="51"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E27" s="51"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E28" s="51"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E29" s="51"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E30" s="51"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="40"/>
+      <c r="C31" s="44">
+        <v>2</v>
+      </c>
+      <c r="D31" s="49">
+        <v>3</v>
+      </c>
+      <c r="E31" s="49">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8">
+        <v>5</v>
+      </c>
+      <c r="G31" s="49">
+        <v>6</v>
+      </c>
+      <c r="H31" s="8">
+        <v>7</v>
+      </c>
+      <c r="I31" s="8">
+        <v>8</v>
+      </c>
+      <c r="J31" s="8">
+        <v>9</v>
+      </c>
+      <c r="K31" s="8">
+        <v>10</v>
+      </c>
+      <c r="L31" s="8">
+        <v>11</v>
+      </c>
+      <c r="M31" s="8">
+        <v>13</v>
+      </c>
+      <c r="N31" s="8">
+        <v>16</v>
+      </c>
+      <c r="O31" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="2:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="40"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="8"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="5">
+        <v>10</v>
+      </c>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="11" t="str">
+        <f>"净资产"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
+        <v>净资产(单位:10万元)</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="11" t="str">
+        <f>"持仓市值"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
+        <v>持仓市值(单位:10万元)</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="13" t="str">
+        <f>"资金可用额度"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
+        <v>资金可用额度(单位:10万元)</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
+        <v>1</v>
+      </c>
+      <c r="B34" s="42">
+        <v>42751</v>
+      </c>
+      <c r="C34" s="46">
+        <v>187.76</v>
+      </c>
+      <c r="D34" s="17">
+        <v>37.94006062271778</v>
+      </c>
+      <c r="E34" s="17">
+        <v>-149.81993937728222</v>
+      </c>
+      <c r="F34" s="23">
+        <v>-0.11121611286873313</v>
+      </c>
+      <c r="G34" s="53">
+        <v>-20.881937352233336</v>
+      </c>
+      <c r="H34" s="23">
+        <v>-0.75165395368538923</v>
+      </c>
+      <c r="I34" s="30">
+        <v>187.76</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20">
+        <v>1</v>
+      </c>
+      <c r="M34" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N34" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O34" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q34" s="15">
+        <f>C34/$W$32</f>
+        <v>18.776</v>
+      </c>
+      <c r="R34" s="25">
+        <f>D34/$W$32</f>
+        <v>3.7940060622717779</v>
+      </c>
+      <c r="S34" s="25">
+        <f>G34</f>
+        <v>-20.881937352233336</v>
+      </c>
+      <c r="T34" s="26">
+        <f>H34</f>
+        <v>-0.75165395368538923</v>
+      </c>
+      <c r="U34" s="35">
+        <f>I34/$W$32</f>
+        <v>18.776</v>
+      </c>
+      <c r="V34" s="27">
+        <f>J34/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="29">
+        <f>K34/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>2</v>
+      </c>
+      <c r="B35" s="42">
+        <v>42752</v>
+      </c>
+      <c r="C35" s="46">
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <v>41.41310104826222</v>
+      </c>
+      <c r="E35" s="17">
+        <v>-148.10689895173778</v>
+      </c>
+      <c r="F35" s="23">
+        <v>9.0388371968364526E-3</v>
+      </c>
+      <c r="G35" s="53">
+        <v>1.7130404255444445</v>
+      </c>
+      <c r="H35" s="23">
+        <v>-0.72947175169763123</v>
+      </c>
+      <c r="I35" s="30">
+        <v>189.52</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20">
+        <v>1</v>
+      </c>
+      <c r="M35" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N35" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O35" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q35" s="15">
+        <f t="shared" ref="Q35:R58" si="0">C35/$W$32</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="25">
+        <f t="shared" si="0"/>
+        <v>4.1413101048262222</v>
+      </c>
+      <c r="S35" s="25">
+        <f t="shared" ref="S35:T58" si="1">G35</f>
+        <v>1.7130404255444445</v>
+      </c>
+      <c r="T35" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.72947175169763123</v>
+      </c>
+      <c r="U35" s="35">
+        <f t="shared" ref="U35:W58" si="2">I35/$W$32</f>
+        <v>18.952000000000002</v>
+      </c>
+      <c r="V35" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15">
+        <v>3</v>
+      </c>
+      <c r="B36" s="42">
+        <v>42753</v>
+      </c>
+      <c r="C36" s="46">
+        <v>0</v>
+      </c>
+      <c r="D36" s="17">
+        <v>33.927359251584441</v>
+      </c>
+      <c r="E36" s="17">
+        <v>-151.87264074841553</v>
+      </c>
+      <c r="F36" s="23">
+        <v>-2.0267716882011722E-2</v>
+      </c>
+      <c r="G36" s="53">
+        <v>-3.7657417966777778</v>
+      </c>
+      <c r="H36" s="23">
+        <v>-0.73764522602955385</v>
+      </c>
+      <c r="I36" s="30">
+        <v>185.8</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20">
+        <v>1</v>
+      </c>
+      <c r="M36" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N36" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O36" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q36" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3927359251584441</v>
+      </c>
+      <c r="S36" s="25">
+        <f t="shared" si="1"/>
+        <v>-3.7657417966777778</v>
+      </c>
+      <c r="T36" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.73764522602955385</v>
+      </c>
+      <c r="U36" s="35">
+        <f t="shared" si="2"/>
+        <v>18.580000000000002</v>
+      </c>
+      <c r="V36" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>4</v>
+      </c>
+      <c r="B37" s="42">
+        <v>42754</v>
+      </c>
+      <c r="C37" s="46">
+        <v>0</v>
+      </c>
+      <c r="D37" s="17">
+        <v>31.72103078824</v>
+      </c>
+      <c r="E37" s="17">
+        <v>-152.99896921176</v>
+      </c>
+      <c r="F37" s="23">
+        <v>-6.0974905984432894E-3</v>
+      </c>
+      <c r="G37" s="53">
+        <v>-1.1263284633444444</v>
+      </c>
+      <c r="H37" s="23">
+        <v>-0.7346579338153939</v>
+      </c>
+      <c r="I37" s="30">
+        <v>184.72</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20">
+        <v>1</v>
+      </c>
+      <c r="M37" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N37" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O37" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q37" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="25">
+        <f t="shared" si="0"/>
+        <v>3.1721030788240001</v>
+      </c>
+      <c r="S37" s="25">
+        <f t="shared" si="1"/>
+        <v>-1.1263284633444444</v>
+      </c>
+      <c r="T37" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.7346579338153939</v>
+      </c>
+      <c r="U37" s="35">
+        <f t="shared" si="2"/>
+        <v>18.472000000000001</v>
+      </c>
+      <c r="V37" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
+        <v>5</v>
+      </c>
+      <c r="B38" s="42">
+        <v>42755</v>
+      </c>
+      <c r="C38" s="46">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17">
+        <v>40.713457880451109</v>
+      </c>
+      <c r="E38" s="17">
+        <v>-148.52654211954888</v>
+      </c>
+      <c r="F38" s="23">
+        <v>2.3633624456833185E-2</v>
+      </c>
+      <c r="G38" s="53">
+        <v>4.4724270922111113</v>
+      </c>
+      <c r="H38" s="23">
+        <v>-0.70520601687039863</v>
+      </c>
+      <c r="I38" s="30">
+        <v>189.24</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20">
+        <v>1</v>
+      </c>
+      <c r="M38" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N38" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O38" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q38" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="25">
+        <f t="shared" si="0"/>
+        <v>4.0713457880451109</v>
+      </c>
+      <c r="S38" s="25">
+        <f t="shared" si="1"/>
+        <v>4.4724270922111113</v>
+      </c>
+      <c r="T38" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.70520601687039863</v>
+      </c>
+      <c r="U38" s="35">
+        <f t="shared" si="2"/>
+        <v>18.923999999999999</v>
+      </c>
+      <c r="V38" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15">
+        <v>6</v>
+      </c>
+      <c r="B39" s="42">
+        <v>42758</v>
+      </c>
+      <c r="C39" s="46">
+        <v>191.04</v>
+      </c>
+      <c r="D39" s="17">
+        <v>44.171343601528889</v>
+      </c>
+      <c r="E39" s="17">
+        <v>-146.8686563984711</v>
+      </c>
+      <c r="F39" s="23">
+        <v>9.1762538560278255E-3</v>
+      </c>
+      <c r="G39" s="53">
+        <v>1.7530315366555556</v>
+      </c>
+      <c r="H39" s="23">
+        <v>-0.69021097646617802</v>
+      </c>
+      <c r="I39" s="30">
+        <v>191.04</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20">
+        <v>1</v>
+      </c>
+      <c r="M39" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N39" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O39" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q39" s="15">
+        <f t="shared" si="0"/>
+        <v>19.103999999999999</v>
+      </c>
+      <c r="R39" s="25">
+        <f t="shared" si="0"/>
+        <v>4.4171343601528887</v>
+      </c>
+      <c r="S39" s="25">
+        <f t="shared" si="1"/>
+        <v>1.7530315366555556</v>
+      </c>
+      <c r="T39" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.69021097646617802</v>
+      </c>
+      <c r="U39" s="35">
+        <f t="shared" si="2"/>
+        <v>19.103999999999999</v>
+      </c>
+      <c r="V39" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15">
+        <v>7</v>
+      </c>
+      <c r="B40" s="42">
+        <v>42759</v>
+      </c>
+      <c r="C40" s="46">
+        <v>0</v>
+      </c>
+      <c r="D40" s="17">
+        <v>37.965459582628888</v>
+      </c>
+      <c r="E40" s="17">
+        <v>-149.9945404173711</v>
+      </c>
+      <c r="F40" s="23">
+        <v>-1.6630581075228773E-2</v>
+      </c>
+      <c r="G40" s="53">
+        <v>-3.1258840189000003</v>
+      </c>
+      <c r="H40" s="23">
+        <v>-0.69919433075215454</v>
+      </c>
+      <c r="I40" s="30">
+        <v>187.96</v>
+      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20">
+        <v>1</v>
+      </c>
+      <c r="M40" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N40" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O40" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q40" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="25">
+        <f t="shared" si="0"/>
+        <v>3.7965459582628887</v>
+      </c>
+      <c r="S40" s="25">
+        <f t="shared" si="1"/>
+        <v>-3.1258840189000003</v>
+      </c>
+      <c r="T40" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.69919433075215454</v>
+      </c>
+      <c r="U40" s="35">
+        <f t="shared" si="2"/>
+        <v>18.795999999999999</v>
+      </c>
+      <c r="V40" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
+        <v>8</v>
+      </c>
+      <c r="B41" s="42">
+        <v>42760</v>
+      </c>
+      <c r="C41" s="46">
+        <v>0</v>
+      </c>
+      <c r="D41" s="17">
+        <v>43.278295563728889</v>
+      </c>
+      <c r="E41" s="17">
+        <v>-147.36170443627111</v>
+      </c>
+      <c r="F41" s="23">
+        <v>1.3810511860574907E-2</v>
+      </c>
+      <c r="G41" s="53">
+        <v>2.6328359811000004</v>
+      </c>
+      <c r="H41" s="23">
+        <v>-0.68154383635122562</v>
+      </c>
+      <c r="I41" s="30">
+        <v>190.64</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20">
+        <v>1</v>
+      </c>
+      <c r="M41" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N41" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O41" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q41" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="25">
+        <f t="shared" si="0"/>
+        <v>4.3278295563728886</v>
+      </c>
+      <c r="S41" s="25">
+        <f t="shared" si="1"/>
+        <v>2.6328359811000004</v>
+      </c>
+      <c r="T41" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.68154383635122562</v>
+      </c>
+      <c r="U41" s="35">
+        <f t="shared" si="2"/>
+        <v>19.064</v>
+      </c>
+      <c r="V41" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15">
+        <v>9</v>
+      </c>
+      <c r="B42" s="42">
+        <v>42761</v>
+      </c>
+      <c r="C42" s="46">
+        <v>0</v>
+      </c>
+      <c r="D42" s="17">
+        <v>50.190953767051113</v>
+      </c>
+      <c r="E42" s="17">
+        <v>-143.92904623294891</v>
+      </c>
+      <c r="F42" s="23">
+        <v>1.768317640285505E-2</v>
+      </c>
+      <c r="G42" s="53">
+        <v>3.4326582033222222</v>
+      </c>
+      <c r="H42" s="23">
+        <v>-0.66048203173857833</v>
+      </c>
+      <c r="I42" s="30">
+        <v>194.12</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20">
+        <v>1</v>
+      </c>
+      <c r="M42" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N42" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O42" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q42" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="25">
+        <f t="shared" si="0"/>
+        <v>5.0190953767051116</v>
+      </c>
+      <c r="S42" s="25">
+        <f t="shared" si="1"/>
+        <v>3.4326582033222222</v>
+      </c>
+      <c r="T42" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.66048203173857833</v>
+      </c>
+      <c r="U42" s="35">
+        <f t="shared" si="2"/>
+        <v>19.411999999999999</v>
+      </c>
+      <c r="V42" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15">
+        <v>10</v>
+      </c>
+      <c r="B43" s="42">
+        <v>42762</v>
+      </c>
+      <c r="C43" s="46">
+        <v>0</v>
+      </c>
+      <c r="D43" s="17">
+        <v>50.144385303706663</v>
+      </c>
+      <c r="E43" s="17">
+        <v>-143.97561469629332</v>
+      </c>
+      <c r="F43" s="23">
+        <v>-2.3989523668063284E-4</v>
+      </c>
+      <c r="G43" s="53">
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="H43" s="23">
+        <v>-0.65609557785627448</v>
+      </c>
+      <c r="I43" s="30">
+        <v>194.12</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20">
+        <v>1</v>
+      </c>
+      <c r="M43" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N43" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O43" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q43" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="25">
+        <f t="shared" si="0"/>
+        <v>5.0144385303706667</v>
+      </c>
+      <c r="S43" s="25">
+        <f t="shared" si="1"/>
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="T43" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65609557785627448</v>
+      </c>
+      <c r="U43" s="35">
+        <f t="shared" si="2"/>
+        <v>19.411999999999999</v>
+      </c>
+      <c r="V43" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15">
+        <v>11</v>
+      </c>
+      <c r="B44" s="42">
+        <v>42765</v>
+      </c>
+      <c r="C44" s="46">
+        <v>194.12</v>
+      </c>
+      <c r="D44" s="17">
+        <v>50.004679913673328</v>
+      </c>
+      <c r="E44" s="17">
+        <v>-144.11532008632665</v>
+      </c>
+      <c r="F44" s="23">
+        <v>-2.3989523668063284E-4</v>
+      </c>
+      <c r="G44" s="53">
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="H44" s="23">
+        <v>-0.65262103652936365</v>
+      </c>
+      <c r="I44" s="30">
+        <v>194.12</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20">
+        <v>1</v>
+      </c>
+      <c r="M44" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N44" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O44" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q44" s="15">
+        <f t="shared" si="0"/>
+        <v>19.411999999999999</v>
+      </c>
+      <c r="R44" s="25">
+        <f t="shared" si="0"/>
+        <v>5.0004679913673327</v>
+      </c>
+      <c r="S44" s="25">
+        <f t="shared" si="1"/>
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="T44" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65262103652936365</v>
+      </c>
+      <c r="U44" s="35">
+        <f t="shared" si="2"/>
+        <v>19.411999999999999</v>
+      </c>
+      <c r="V44" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15">
+        <v>12</v>
+      </c>
+      <c r="B45" s="42">
+        <v>42766</v>
+      </c>
+      <c r="C45" s="46">
+        <v>0</v>
+      </c>
+      <c r="D45" s="17">
+        <v>49.958111450328879</v>
+      </c>
+      <c r="E45" s="17">
+        <v>-144.16188854967109</v>
+      </c>
+      <c r="F45" s="23">
+        <v>-2.3989523668063284E-4</v>
+      </c>
+      <c r="G45" s="53">
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="H45" s="23">
+        <v>-0.64913770603152443</v>
+      </c>
+      <c r="I45" s="30">
+        <v>194.12</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="20">
+        <v>1</v>
+      </c>
+      <c r="M45" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N45" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O45" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q45" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="25">
+        <f t="shared" si="0"/>
+        <v>4.9958111450328877</v>
+      </c>
+      <c r="S45" s="25">
+        <f t="shared" si="1"/>
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="T45" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.64913770603152443</v>
+      </c>
+      <c r="U45" s="35">
+        <f t="shared" si="2"/>
+        <v>19.411999999999999</v>
+      </c>
+      <c r="V45" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15">
+        <v>13</v>
+      </c>
+      <c r="B46" s="42">
+        <v>42767</v>
+      </c>
+      <c r="C46" s="46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="17">
+        <v>49.91154298698445</v>
+      </c>
+      <c r="E46" s="17">
+        <v>-144.20845701301553</v>
+      </c>
+      <c r="F46" s="23">
+        <v>-2.3989523668063284E-4</v>
+      </c>
+      <c r="G46" s="53">
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="H46" s="23">
+        <v>-0.64600966665225845</v>
+      </c>
+      <c r="I46" s="30">
+        <v>194.12</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="20">
+        <v>1</v>
+      </c>
+      <c r="M46" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N46" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O46" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q46" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="25">
+        <f t="shared" si="0"/>
+        <v>4.9911542986984454</v>
+      </c>
+      <c r="S46" s="25">
+        <f t="shared" si="1"/>
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="T46" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.64600966665225845</v>
+      </c>
+      <c r="U46" s="35">
+        <f t="shared" si="2"/>
+        <v>19.411999999999999</v>
+      </c>
+      <c r="V46" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15">
+        <v>14</v>
+      </c>
+      <c r="B47" s="42">
+        <v>42768</v>
+      </c>
+      <c r="C47" s="46">
+        <v>0</v>
+      </c>
+      <c r="D47" s="17">
+        <v>49.864974523640001</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-144.25502547635998</v>
+      </c>
+      <c r="F47" s="23">
+        <v>-2.3989523668063284E-4</v>
+      </c>
+      <c r="G47" s="53">
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="H47" s="23">
+        <v>-0.64318771666332075</v>
+      </c>
+      <c r="I47" s="30">
+        <v>194.12</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="20">
+        <v>1</v>
+      </c>
+      <c r="M47" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N47" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O47" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q47" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="25">
+        <f t="shared" si="0"/>
+        <v>4.9864974523640004</v>
+      </c>
+      <c r="S47" s="25">
+        <f t="shared" si="1"/>
+        <v>-4.6568463344444443E-2</v>
+      </c>
+      <c r="T47" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.64318771666332075</v>
+      </c>
+      <c r="U47" s="35">
+        <f t="shared" si="2"/>
+        <v>19.411999999999999</v>
+      </c>
+      <c r="V47" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15">
+        <v>15</v>
+      </c>
+      <c r="B48" s="42">
+        <v>42769</v>
+      </c>
+      <c r="C48" s="46">
+        <v>0</v>
+      </c>
+      <c r="D48" s="17">
+        <v>44.858957171406665</v>
+      </c>
+      <c r="E48" s="17">
+        <v>-146.78104282859331</v>
+      </c>
+      <c r="F48" s="23">
+        <v>-1.3181054854066652E-2</v>
+      </c>
+      <c r="G48" s="53">
+        <v>-2.5260173522333331</v>
+      </c>
+      <c r="H48" s="23">
+        <v>-0.65192603658342974</v>
+      </c>
+      <c r="I48" s="30">
+        <v>191.64</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20">
+        <v>1</v>
+      </c>
+      <c r="M48" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N48" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O48" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q48" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="25">
+        <f t="shared" si="0"/>
+        <v>4.4858957171406662</v>
+      </c>
+      <c r="S48" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.5260173522333331</v>
+      </c>
+      <c r="T48" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65192603658342974</v>
+      </c>
+      <c r="U48" s="35">
+        <f t="shared" si="2"/>
+        <v>19.163999999999998</v>
+      </c>
+      <c r="V48" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15">
+        <v>16</v>
+      </c>
+      <c r="B49" s="42">
+        <v>42772</v>
+      </c>
+      <c r="C49" s="46">
+        <v>98.5</v>
+      </c>
+      <c r="D49" s="17">
+        <v>-43.577625018626662</v>
+      </c>
+      <c r="E49" s="17">
+        <v>-142.07762501862666</v>
+      </c>
+      <c r="F49" s="23">
+        <v>4.8684797100846028E-2</v>
+      </c>
+      <c r="G49" s="53">
+        <v>4.7954525144333333</v>
+      </c>
+      <c r="H49" s="23">
+        <v>-0.63892674854902476</v>
+      </c>
+      <c r="I49" s="30">
+        <v>98.5</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20">
+        <v>1</v>
+      </c>
+      <c r="M49" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N49" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O49" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q49" s="15">
+        <f t="shared" si="0"/>
+        <v>9.85</v>
+      </c>
+      <c r="R49" s="25">
+        <f t="shared" si="0"/>
+        <v>-4.3577625018626662</v>
+      </c>
+      <c r="S49" s="25">
+        <f t="shared" si="1"/>
+        <v>4.7954525144333333</v>
+      </c>
+      <c r="T49" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.63892674854902476</v>
+      </c>
+      <c r="U49" s="35">
+        <f t="shared" si="2"/>
+        <v>9.85</v>
+      </c>
+      <c r="V49" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15">
+        <v>17</v>
+      </c>
+      <c r="B50" s="42">
+        <v>42773</v>
+      </c>
+      <c r="C50" s="46">
+        <v>0</v>
+      </c>
+      <c r="D50" s="17">
+        <v>-142.06388497014888</v>
+      </c>
+      <c r="E50" s="17">
+        <v>-142.06388497014888</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="53">
+        <v>1.3740048477777779E-2</v>
+      </c>
+      <c r="H50" s="23">
+        <v>-0.65725778659488987</v>
+      </c>
+      <c r="I50" s="30">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20">
+        <v>0</v>
+      </c>
+      <c r="M50" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N50" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O50" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q50" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.206388497014888</v>
+      </c>
+      <c r="S50" s="25">
+        <f t="shared" si="1"/>
+        <v>1.3740048477777779E-2</v>
+      </c>
+      <c r="T50" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65725778659488987</v>
+      </c>
+      <c r="U50" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="15">
+        <v>18</v>
+      </c>
+      <c r="B51" s="42">
+        <v>42774</v>
+      </c>
+      <c r="C51" s="46">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17">
+        <v>-142.06679166157332</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-142.06679166157332</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H51" s="23">
+        <v>-0.65727123438686275</v>
+      </c>
+      <c r="I51" s="30">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20">
+        <v>0</v>
+      </c>
+      <c r="M51" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N51" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O51" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q51" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.206679166157333</v>
+      </c>
+      <c r="S51" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T51" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65727123438686275</v>
+      </c>
+      <c r="U51" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15">
+        <v>19</v>
+      </c>
+      <c r="B52" s="42">
+        <v>42775</v>
+      </c>
+      <c r="C52" s="46">
+        <v>0</v>
+      </c>
+      <c r="D52" s="17">
+        <v>-142.06969835299776</v>
+      </c>
+      <c r="E52" s="17">
+        <v>-142.06969835299776</v>
+      </c>
+      <c r="F52" s="23">
+        <v>0</v>
+      </c>
+      <c r="G52" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H52" s="23">
+        <v>-0.65728468217883562</v>
+      </c>
+      <c r="I52" s="30">
+        <v>0</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20">
+        <v>0</v>
+      </c>
+      <c r="M52" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N52" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O52" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q52" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.206969835299777</v>
+      </c>
+      <c r="S52" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T52" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65728468217883562</v>
+      </c>
+      <c r="U52" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15">
+        <v>20</v>
+      </c>
+      <c r="B53" s="42">
+        <v>42776</v>
+      </c>
+      <c r="C53" s="46">
+        <v>0</v>
+      </c>
+      <c r="D53" s="17">
+        <v>-142.0726050444222</v>
+      </c>
+      <c r="E53" s="17">
+        <v>-142.0726050444222</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H53" s="23">
+        <v>-0.6572981299708085</v>
+      </c>
+      <c r="I53" s="30">
+        <v>0</v>
+      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20">
+        <v>0</v>
+      </c>
+      <c r="M53" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N53" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O53" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q53" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.207260504442221</v>
+      </c>
+      <c r="S53" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T53" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.6572981299708085</v>
+      </c>
+      <c r="U53" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="15">
+        <v>21</v>
+      </c>
+      <c r="B54" s="42">
+        <v>42779</v>
+      </c>
+      <c r="C54" s="46">
+        <v>0</v>
+      </c>
+      <c r="D54" s="17">
+        <v>-142.08132511869556</v>
+      </c>
+      <c r="E54" s="17">
+        <v>-142.08132511869556</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H54" s="23">
+        <v>-0.65733847334672735</v>
+      </c>
+      <c r="I54" s="30">
+        <v>0</v>
+      </c>
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="20">
+        <v>0</v>
+      </c>
+      <c r="M54" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N54" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O54" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q54" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.208132511869556</v>
+      </c>
+      <c r="S54" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T54" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65733847334672735</v>
+      </c>
+      <c r="U54" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="15">
+        <v>22</v>
+      </c>
+      <c r="B55" s="42">
+        <v>42780</v>
+      </c>
+      <c r="C55" s="46">
+        <v>0</v>
+      </c>
+      <c r="D55" s="17">
+        <v>-142.08423181012</v>
+      </c>
+      <c r="E55" s="17">
+        <v>-142.08423181012</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0</v>
+      </c>
+      <c r="G55" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H55" s="23">
+        <v>-0.65735192113870022</v>
+      </c>
+      <c r="I55" s="30">
+        <v>0</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20">
+        <v>0</v>
+      </c>
+      <c r="M55" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N55" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O55" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q55" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.208423181012</v>
+      </c>
+      <c r="S55" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T55" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65735192113870022</v>
+      </c>
+      <c r="U55" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="15">
+        <v>23</v>
+      </c>
+      <c r="B56" s="42">
+        <v>42781</v>
+      </c>
+      <c r="C56" s="46">
+        <v>0</v>
+      </c>
+      <c r="D56" s="17">
+        <v>-142.08713850154444</v>
+      </c>
+      <c r="E56" s="17">
+        <v>-142.08713850154444</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0</v>
+      </c>
+      <c r="G56" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H56" s="23">
+        <v>-0.6573653689306731</v>
+      </c>
+      <c r="I56" s="30">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20">
+        <v>0</v>
+      </c>
+      <c r="M56" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N56" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O56" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q56" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.208713850154444</v>
+      </c>
+      <c r="S56" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T56" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.6573653689306731</v>
+      </c>
+      <c r="U56" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="15">
+        <v>24</v>
+      </c>
+      <c r="B57" s="42">
+        <v>42782</v>
+      </c>
+      <c r="C57" s="46">
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <v>-142.09004519296889</v>
+      </c>
+      <c r="E57" s="17">
+        <v>-142.09004519296889</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0</v>
+      </c>
+      <c r="G57" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H57" s="23">
+        <v>-0.6573788167226462</v>
+      </c>
+      <c r="I57" s="30">
+        <v>0</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20">
+        <v>0</v>
+      </c>
+      <c r="M57" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N57" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O57" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q57" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.209004519296888</v>
+      </c>
+      <c r="S57" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T57" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.6573788167226462</v>
+      </c>
+      <c r="U57" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="15">
+        <v>25</v>
+      </c>
+      <c r="B58" s="42">
+        <v>42783</v>
+      </c>
+      <c r="C58" s="46">
+        <v>0</v>
+      </c>
+      <c r="D58" s="17">
+        <v>-142.09295188439333</v>
+      </c>
+      <c r="E58" s="17">
+        <v>-142.09295188439333</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0</v>
+      </c>
+      <c r="G58" s="53">
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="H58" s="23">
+        <v>-0.65739226451461907</v>
+      </c>
+      <c r="I58" s="30">
+        <v>0</v>
+      </c>
+      <c r="J58" s="18"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="20">
+        <v>0</v>
+      </c>
+      <c r="M58" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="N58" s="34">
+        <v>-0.08</v>
+      </c>
+      <c r="O58" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="Q58" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.209295188439333</v>
+      </c>
+      <c r="S58" s="25">
+        <f t="shared" si="1"/>
+        <v>-2.9066914244444447E-3</v>
+      </c>
+      <c r="T58" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.65739226451461907</v>
+      </c>
+      <c r="U58" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="C59" s="47"/>
+      <c r="J59" s="2"/>
+      <c r="M59" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="X59" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="M60" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="X60" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M61" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="X61" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M62" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="X62" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M63" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="X63" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M64" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="X64" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="13:24" x14ac:dyDescent="0.15">
+      <c r="M65" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="X65" s="28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.4" right="0.26" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/BandReport.xlsx
@@ -10,7 +10,7 @@
     <sheet name="波段" sheetId="151" r:id="rId1"/>
     <sheet name="合计" sheetId="168" r:id="rId2"/>
     <sheet name="檀显峰（基金）" sheetId="176" r:id="rId3"/>
-    <sheet name="檀显峰 （统管）" sheetId="177" r:id="rId4"/>
+    <sheet name="檀显峰（统管）" sheetId="177" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">波段!$A$1:$O$120</definedName>
@@ -965,8 +965,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1600930240"/>
-        <c:axId val="1600923712"/>
+        <c:axId val="-179340832"/>
+        <c:axId val="-179350624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2079,8 +2079,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1600930240"/>
-        <c:axId val="1600923712"/>
+        <c:axId val="-179340832"/>
+        <c:axId val="-179350624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2971,11 +2971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1600917728"/>
-        <c:axId val="1600920448"/>
+        <c:axId val="-179339200"/>
+        <c:axId val="-179348992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1600930240"/>
+        <c:axId val="-179340832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +2995,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600923712"/>
+        <c:crossAx val="-179350624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1600923712"/>
+        <c:axId val="-179350624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,12 +3075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600930240"/>
+        <c:crossAx val="-179340832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1600920448"/>
+        <c:axId val="-179348992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,12 +3100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600917728"/>
+        <c:crossAx val="-179339200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1600917728"/>
+        <c:axId val="-179339200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,7 +3114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1600920448"/>
+        <c:crossAx val="-179348992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3199,12 +3199,6 @@
               <a:t>-</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>波段</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -3731,8 +3725,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1600918272"/>
-        <c:axId val="1599219136"/>
+        <c:axId val="-179346816"/>
+        <c:axId val="-179338656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4835,8 +4829,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1600918272"/>
-        <c:axId val="1599219136"/>
+        <c:axId val="-179346816"/>
+        <c:axId val="-179338656"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5717,11 +5711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1749059056"/>
-        <c:axId val="1749049264"/>
+        <c:axId val="-179351712"/>
+        <c:axId val="-179343552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1600918272"/>
+        <c:axId val="-179346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5735,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599219136"/>
+        <c:crossAx val="-179338656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5749,7 +5743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1599219136"/>
+        <c:axId val="-179338656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5821,12 +5815,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600918272"/>
+        <c:crossAx val="-179346816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1749049264"/>
+        <c:axId val="-179343552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5846,12 +5840,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1749059056"/>
+        <c:crossAx val="-179351712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1749059056"/>
+        <c:axId val="-179351712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,7 +5854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1749049264"/>
+        <c:crossAx val="-179343552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5945,12 +5939,6 @@
               <a:t>-</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>波段</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -6006,7 +5994,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$U$33</c:f>
+              <c:f>'檀显峰（统管）'!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6087,7 +6075,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6171,7 +6159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$U$34:$U$65</c:f>
+              <c:f>'檀显峰（统管）'!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -6259,7 +6247,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$Q$33</c:f>
+              <c:f>'檀显峰（统管）'!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6300,7 +6288,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6384,7 +6372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$Q$34:$Q$65</c:f>
+              <c:f>'檀显峰（统管）'!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6477,8 +6465,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1880335520"/>
-        <c:axId val="1887723024"/>
+        <c:axId val="-179337568"/>
+        <c:axId val="-179348448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6488,7 +6476,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$R$33</c:f>
+              <c:f>'檀显峰（统管）'!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6639,7 +6627,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6723,7 +6711,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$R$34:$R$65</c:f>
+              <c:f>'檀显峰（统管）'!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -6812,7 +6800,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$V$33</c:f>
+              <c:f>'檀显峰（统管）'!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6904,7 +6892,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6988,7 +6976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$V$34:$V$65</c:f>
+              <c:f>'檀显峰（统管）'!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7077,7 +7065,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$G$33</c:f>
+              <c:f>'檀显峰（统管）'!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7219,7 +7207,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7303,7 +7291,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$G$34:$G$65</c:f>
+              <c:f>'檀显峰（统管）'!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7392,7 +7380,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$E$33</c:f>
+              <c:f>'檀显峰（统管）'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7487,7 +7475,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$E$34:$E$65</c:f>
+              <c:f>'檀显峰（统管）'!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7581,8 +7569,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880335520"/>
-        <c:axId val="1887723024"/>
+        <c:axId val="-179337568"/>
+        <c:axId val="-179348448"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7592,7 +7580,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$H$33</c:f>
+              <c:f>'檀显峰（统管）'!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7738,7 +7726,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$H$34:$H$65</c:f>
+              <c:f>'檀显峰（统管）'!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7827,7 +7815,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$X$33</c:f>
+              <c:f>'檀显峰（统管）'!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7928,7 +7916,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$X$34:$X$65</c:f>
+              <c:f>'檀显峰（统管）'!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -8038,7 +8026,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$M$33</c:f>
+              <c:f>'檀显峰（统管）'!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8161,7 +8149,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$M$34:$M$65</c:f>
+              <c:f>'檀显峰（统管）'!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -8271,7 +8259,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$F$33</c:f>
+              <c:f>'檀显峰（统管）'!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8369,7 +8357,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$F$34:$F$65</c:f>
+              <c:f>'檀显峰（统管）'!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -8463,11 +8451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1887724656"/>
-        <c:axId val="1887723568"/>
+        <c:axId val="-179343008"/>
+        <c:axId val="-179351168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880335520"/>
+        <c:axId val="-179337568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8487,7 +8475,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1887723024"/>
+        <c:crossAx val="-179348448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8495,7 +8483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1887723024"/>
+        <c:axId val="-179348448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8567,12 +8555,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880335520"/>
+        <c:crossAx val="-179337568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1887723568"/>
+        <c:axId val="-179351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8592,12 +8580,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1887724656"/>
+        <c:crossAx val="-179343008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1887724656"/>
+        <c:axId val="-179343008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8606,7 +8594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1887723568"/>
+        <c:crossAx val="-179351168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9223,8 +9211,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1749063408"/>
-        <c:axId val="1749052528"/>
+        <c:axId val="-179352256"/>
+        <c:axId val="-179350080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10327,8 +10315,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1749063408"/>
-        <c:axId val="1749052528"/>
+        <c:axId val="-179352256"/>
+        <c:axId val="-179350080"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11209,11 +11197,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1749060144"/>
-        <c:axId val="1749062320"/>
+        <c:axId val="-179345184"/>
+        <c:axId val="-179345728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1749063408"/>
+        <c:axId val="-179352256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11233,7 +11221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1749052528"/>
+        <c:crossAx val="-179350080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11241,7 +11229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1749052528"/>
+        <c:axId val="-179350080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11313,12 +11301,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1749063408"/>
+        <c:crossAx val="-179352256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1749062320"/>
+        <c:axId val="-179345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11338,12 +11326,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1749060144"/>
+        <c:crossAx val="-179345184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1749060144"/>
+        <c:axId val="-179345184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11352,7 +11340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1749062320"/>
+        <c:crossAx val="-179345728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11431,22 +11419,10 @@
               <a:t>檀显峰（基金）</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>波段</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>收益合计表（近</a:t>
+              <a:t>收益表（近</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -11470,8 +11446,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18388532319670875"/>
-          <c:y val="6.5366767072050483E-2"/>
+          <c:x val="0.1569492533971974"/>
+          <c:y val="6.5366825905863124E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -11969,8 +11945,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1749049808"/>
-        <c:axId val="1749056336"/>
+        <c:axId val="-179334768"/>
+        <c:axId val="-179334224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13073,8 +13049,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1749049808"/>
-        <c:axId val="1749056336"/>
+        <c:axId val="-179334768"/>
+        <c:axId val="-179334224"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13955,11 +13931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1749050352"/>
-        <c:axId val="1749055248"/>
+        <c:axId val="-2064191680"/>
+        <c:axId val="-2064185696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1749049808"/>
+        <c:axId val="-179334768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13979,7 +13955,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1749056336"/>
+        <c:crossAx val="-179334224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -13987,7 +13963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1749056336"/>
+        <c:axId val="-179334224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14059,12 +14035,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1749049808"/>
+        <c:crossAx val="-179334768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1749055248"/>
+        <c:axId val="-2064185696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14084,12 +14060,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1749050352"/>
+        <c:crossAx val="-2064191680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1749050352"/>
+        <c:axId val="-2064191680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14098,7 +14074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1749055248"/>
+        <c:crossAx val="-2064185696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14177,18 +14153,6 @@
               <a:t>檀显峰（统管）</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>波段</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -14216,8 +14180,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18388532319670875"/>
-          <c:y val="6.5366767072050483E-2"/>
+          <c:x val="0.12702033457938969"/>
+          <c:y val="6.3047985749540431E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -14244,7 +14208,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$U$33</c:f>
+              <c:f>'檀显峰（统管）'!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14325,7 +14289,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -14409,7 +14373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$U$34:$U$65</c:f>
+              <c:f>'檀显峰（统管）'!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -14497,7 +14461,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$Q$33</c:f>
+              <c:f>'檀显峰（统管）'!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14538,7 +14502,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -14622,7 +14586,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$Q$34:$Q$65</c:f>
+              <c:f>'檀显峰（统管）'!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -14715,8 +14679,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1880327904"/>
-        <c:axId val="1880322464"/>
+        <c:axId val="-2064186784"/>
+        <c:axId val="-2064182976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14726,7 +14690,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$R$33</c:f>
+              <c:f>'檀显峰（统管）'!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14877,7 +14841,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -14961,7 +14925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$R$34:$R$65</c:f>
+              <c:f>'檀显峰（统管）'!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -15050,7 +15014,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$V$33</c:f>
+              <c:f>'檀显峰（统管）'!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15142,7 +15106,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -15226,7 +15190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$V$34:$V$65</c:f>
+              <c:f>'檀显峰（统管）'!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -15315,7 +15279,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$G$33</c:f>
+              <c:f>'檀显峰（统管）'!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15457,7 +15421,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$B$34:$B$65</c:f>
+              <c:f>'檀显峰（统管）'!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/mm/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -15541,7 +15505,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$G$34:$G$65</c:f>
+              <c:f>'檀显峰（统管）'!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -15630,7 +15594,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$E$33</c:f>
+              <c:f>'檀显峰（统管）'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15725,7 +15689,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$E$34:$E$65</c:f>
+              <c:f>'檀显峰（统管）'!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -15819,8 +15783,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880327904"/>
-        <c:axId val="1880322464"/>
+        <c:axId val="-2064186784"/>
+        <c:axId val="-2064182976"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15830,7 +15794,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$H$33</c:f>
+              <c:f>'檀显峰（统管）'!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15976,7 +15940,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$H$34:$H$65</c:f>
+              <c:f>'檀显峰（统管）'!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -16065,7 +16029,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$X$33</c:f>
+              <c:f>'檀显峰（统管）'!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16166,7 +16130,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$X$34:$X$65</c:f>
+              <c:f>'檀显峰（统管）'!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -16276,7 +16240,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$M$33</c:f>
+              <c:f>'檀显峰（统管）'!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16399,7 +16363,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$M$34:$M$65</c:f>
+              <c:f>'檀显峰（统管）'!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -16509,7 +16473,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'檀显峰 （统管）'!$F$33</c:f>
+              <c:f>'檀显峰（统管）'!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16607,7 +16571,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'檀显峰 （统管）'!$F$34:$F$65</c:f>
+              <c:f>'檀显峰（统管）'!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -16701,11 +16665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880329536"/>
-        <c:axId val="1880336064"/>
+        <c:axId val="-2064194400"/>
+        <c:axId val="-2064182432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880327904"/>
+        <c:axId val="-2064186784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16725,7 +16689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880322464"/>
+        <c:crossAx val="-2064182976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -16733,7 +16697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880322464"/>
+        <c:axId val="-2064182976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16805,12 +16769,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880327904"/>
+        <c:crossAx val="-2064186784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1880336064"/>
+        <c:axId val="-2064182432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16830,12 +16794,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880329536"/>
+        <c:crossAx val="-2064194400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1880329536"/>
+        <c:axId val="-2064194400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16844,7 +16808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880336064"/>
+        <c:crossAx val="-2064182432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18006,8 +17970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A60" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S93" sqref="S93"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20252,7 +20216,7 @@
   <dimension ref="A2:Y65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -22473,7 +22437,7 @@
   <dimension ref="A2:Y65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
